--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trademark Config" sheetId="1" state="visible" r:id="rId3"/>
@@ -4383,7 +4383,7 @@
     <t xml:space="preserve">To find out more about responsible consumption, visit Responsibility.org and OurThinkingAboutDrinking.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Terms of Use | Privacy Policy | Cookie Policy | Nutrition | Accessibility Statement</t>
+    <t xml:space="preserve">Terms of Use | Privacy Policy | Cookie Policy | Nutrition | Accessibility Statement | Product US Info</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;a href=https://legal.brown-forman.com/terms-of-use/english target="_blank"&gt;Terms of Use&lt;/a&gt; | &lt;a href=https://legal.brown-forman.com/privacy-policy/english target="_blank"&gt;Privacy Policy&lt;/a&gt; | &lt;a href=https://legal.brown-forman.com/cookie-policy/english target="_blank"&gt;Cookie Policy&lt;/a&gt; | Nutrition | Accessibility Statement</t>
@@ -8781,9 +8781,6 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Russian (Russia)</t>
-  </si>
-  <si>
     <t xml:space="preserve">TZ</t>
   </si>
   <si>
@@ -9827,6 +9824,9 @@
     <t xml:space="preserve">Old Forester Family of Brands + Rye</t>
   </si>
   <si>
+    <t xml:space="preserve">Russian (Russia)</t>
+  </si>
+  <si>
     <t xml:space="preserve">US RMD</t>
   </si>
   <si>
@@ -9870,7 +9870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10040,12 +10040,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -10146,7 +10140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10355,11 +10349,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10372,7 +10362,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -10399,23 +10389,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF222222"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -14536,700 +14510,700 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="34" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="34" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="34" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="34" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="s">
         <v>1361</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B7" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
         <v>1362</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B8" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B8" s="52" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B9" s="52" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="52" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="52" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B29" s="52" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B30" s="52" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B31" s="52" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="34" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B32" s="52" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B33" s="52" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="34" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="34" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="34" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="52" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="52" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="34" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="34" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="34" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="34" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="34" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="34" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="34" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="34" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="34" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="34" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="34" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="34" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="34" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="34" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="34" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="34" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="34" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="34" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="34" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="34" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="34" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="34" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B74" s="34" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="53" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="52" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="52" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="52" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="52" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="52" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="52" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="52" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="52" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="52" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="52" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B64" s="52" t="s">
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="34" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="34" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="34" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="34" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="52" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B65" s="52" t="s">
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="34" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B81" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B66" s="52" t="s">
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="34" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="52" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B67" s="52" t="s">
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="52" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B68" s="52" t="s">
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="34" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="52" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B69" s="52" t="s">
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="34" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B85" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="52" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="52" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="52" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="52" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B73" s="52" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="52" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="52" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="52" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="52" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="52" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="52" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="52" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="52" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="52" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="52" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="52" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="52" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B85" s="52" t="s">
-        <v>1642</v>
-      </c>
-    </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="52" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B86" s="52" t="s">
+      <c r="A86" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B86" s="34" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -21096,12 +21070,12 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33362,9 +33336,9 @@
   <dimension ref="A1:F380"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35314,16 +35288,16 @@
         <v>1287</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1288</v>
+        <v>298</v>
       </c>
       <c r="D156" s="16"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="42" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>1289</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>1290</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>146</v>
@@ -35332,10 +35306,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="42" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>1291</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>1292</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>146</v>
@@ -35344,10 +35318,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="44" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B159" s="44" t="s">
         <v>1293</v>
-      </c>
-      <c r="B159" s="44" t="s">
-        <v>1294</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>313</v>
@@ -35356,10 +35330,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="44" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B160" s="44" t="s">
         <v>1295</v>
-      </c>
-      <c r="B160" s="44" t="s">
-        <v>1296</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>146</v>
@@ -35368,10 +35342,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="42" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>1297</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>1298</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>217</v>
@@ -35380,10 +35354,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="43" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B162" s="43" t="s">
         <v>1299</v>
-      </c>
-      <c r="B162" s="43" t="s">
-        <v>1300</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>146</v>
@@ -35392,10 +35366,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="43" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B163" s="43" t="s">
         <v>1301</v>
-      </c>
-      <c r="B163" s="43" t="s">
-        <v>1302</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>146</v>
@@ -35404,10 +35378,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="44" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B164" s="44" t="s">
         <v>1303</v>
-      </c>
-      <c r="B164" s="44" t="s">
-        <v>1304</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>217</v>
@@ -35416,10 +35390,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>1305</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>1306</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>146</v>
@@ -35428,10 +35402,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="42" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B166" s="42" t="s">
         <v>1307</v>
-      </c>
-      <c r="B166" s="42" t="s">
-        <v>1308</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>146</v>
@@ -35440,10 +35414,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="43" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B167" s="43" t="s">
         <v>1309</v>
-      </c>
-      <c r="B167" s="43" t="s">
-        <v>1310</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>146</v>
@@ -35452,10 +35426,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="42" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>1311</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>1312</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>146</v>
@@ -35464,24 +35438,24 @@
     </row>
     <row r="169" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>1313</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>1314</v>
       </c>
       <c r="C169" s="41" t="s">
         <v>317</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="43" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B170" s="43" t="s">
         <v>1316</v>
-      </c>
-      <c r="B170" s="43" t="s">
-        <v>1317</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>146</v>
@@ -35490,10 +35464,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>1318</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>1319</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>147</v>
@@ -35502,24 +35476,24 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B172" s="13" t="s">
         <v>1320</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>1321</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D172" s="48" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="44" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B173" s="44" t="s">
         <v>1323</v>
-      </c>
-      <c r="B173" s="44" t="s">
-        <v>1324</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>154</v>
@@ -35528,10 +35502,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B174" s="13" t="s">
         <v>1325</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>1326</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>146</v>
@@ -35540,10 +35514,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B175" s="43" t="s">
         <v>1327</v>
-      </c>
-      <c r="B175" s="43" t="s">
-        <v>1328</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>146</v>
@@ -35552,10 +35526,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="44" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B176" s="44" t="s">
         <v>1329</v>
-      </c>
-      <c r="B176" s="44" t="s">
-        <v>1330</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>154</v>
@@ -35564,10 +35538,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="44" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B177" s="44" t="s">
         <v>1331</v>
-      </c>
-      <c r="B177" s="44" t="s">
-        <v>1332</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>146</v>
@@ -35576,10 +35550,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B178" s="43" t="s">
         <v>1333</v>
-      </c>
-      <c r="B178" s="43" t="s">
-        <v>1334</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>146</v>
@@ -35588,10 +35562,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="42" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>1335</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>1336</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>146</v>
@@ -35600,10 +35574,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="42" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>1337</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>1338</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>146</v>
@@ -36254,15 +36228,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1339</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B2" s="16"/>
     </row>
@@ -37299,22 +37273,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1342</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="50" t="s">
         <v>1343</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>1344</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>1345</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>1346</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>1347</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -37344,141 +37318,141 @@
         <v>98</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>1350</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>1351</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>1354</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="41" t="s">
         <v>1355</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>1358</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="41" t="s">
         <v>1359</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>1358</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="41" t="s">
         <v>1359</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>1358</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>1359</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>1359</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37486,17 +37460,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>1366</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="F10" s="41" t="s">
         <v>1367</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37504,287 +37478,287 @@
         <v>93</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>1370</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="F12" s="41" t="s">
         <v>1371</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>1374</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F13" s="41" t="s">
         <v>1375</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>1378</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="F14" s="41" t="s">
         <v>1379</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>1382</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="F15" s="41" t="s">
         <v>1383</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>1382</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>1383</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>1387</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="F17" s="41" t="s">
         <v>1388</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E18" s="41" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>1391</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E19" s="41" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>1394</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>1397</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="F20" s="41" t="s">
         <v>1398</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>1401</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="F21" s="41" t="s">
         <v>1402</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="41" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>1405</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>1408</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="F23" s="41" t="s">
         <v>1409</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="41" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>1412</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="F24" s="41" t="s">
         <v>1413</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="41" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>1416</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="F25" s="41" t="s">
         <v>1417</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="51" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="51" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>1420</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="F26" s="51" t="s">
         <v>1421</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37792,17 +37766,17 @@
         <v>111</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>1423</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="F27" s="41" t="s">
         <v>1424</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37810,287 +37784,287 @@
         <v>31</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C28" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>1426</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="E28" s="41" t="s">
         <v>1427</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="F28" s="41" t="s">
         <v>1428</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>1431</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="F29" s="41" t="s">
         <v>1432</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="41" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>1435</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="F30" s="41" t="s">
         <v>1436</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="41" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>1439</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="F31" s="41" t="s">
         <v>1440</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>1443</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="F32" s="41" t="s">
         <v>1444</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="41" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>1447</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="F33" s="41" t="s">
         <v>1448</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="41" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>1451</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>1453</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D35" s="41" t="s">
+      <c r="E35" s="41" t="s">
         <v>1454</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="F35" s="41" t="s">
         <v>1455</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="41" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>1457</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D36" s="41" t="s">
+      <c r="E36" s="41" t="s">
         <v>1458</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="F36" s="41" t="s">
         <v>1459</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="41" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>1463</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D39" s="41" t="s">
+      <c r="E39" s="41" t="s">
         <v>1464</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="F39" s="41" t="s">
         <v>1465</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D40" s="41" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E40" s="41" t="s">
         <v>1464</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="F40" s="41" t="s">
         <v>1465</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>1468</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D41" s="41" t="s">
+      <c r="E41" s="41" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>1469</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>1471</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="E42" s="41" t="s">
         <v>1472</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="F42" s="41" t="s">
         <v>1473</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38098,19 +38072,19 @@
         <v>79</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D43" s="41" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E43" s="41" t="s">
         <v>1475</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="F43" s="41" t="s">
         <v>1476</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38118,19 +38092,19 @@
         <v>82</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D44" s="41" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E44" s="41" t="s">
         <v>1475</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="F44" s="41" t="s">
         <v>1476</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38138,19 +38112,19 @@
         <v>76</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E45" s="41" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F45" s="41" t="s">
         <v>1476</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38158,39 +38132,39 @@
         <v>130</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E46" s="41" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F46" s="41" t="s">
         <v>1476</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="41" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D47" s="41" t="s">
         <v>1479</v>
       </c>
-      <c r="B47" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D47" s="41" t="s">
+      <c r="E47" s="41" t="s">
         <v>1480</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="F47" s="41" t="s">
         <v>1481</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38198,59 +38172,59 @@
         <v>122</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D48" s="41" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E48" s="41" t="s">
         <v>1483</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="F48" s="41" t="s">
         <v>1484</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D49" s="41" t="s">
         <v>1486</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D49" s="41" t="s">
+      <c r="E49" s="41" t="s">
         <v>1487</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="F49" s="41" t="s">
         <v>1488</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>1490</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="E50" s="41" t="s">
         <v>1491</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="F50" s="41" t="s">
         <v>1492</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38258,159 +38232,159 @@
         <v>124</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D51" s="41" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E51" s="41" t="s">
         <v>1494</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="F51" s="41" t="s">
         <v>1495</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>1497</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D52" s="41" t="s">
+      <c r="E52" s="41" t="s">
         <v>1498</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="F52" s="41" t="s">
         <v>1499</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D53" s="41" t="s">
         <v>1501</v>
       </c>
-      <c r="B53" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D53" s="41" t="s">
+      <c r="E53" s="41" t="s">
         <v>1502</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="F53" s="41" t="s">
         <v>1503</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="41" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D54" s="41" t="s">
         <v>1505</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D54" s="41" t="s">
+      <c r="E54" s="41" t="s">
         <v>1506</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="F54" s="41" t="s">
         <v>1507</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D55" s="41" t="s">
         <v>1509</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D55" s="41" t="s">
+      <c r="E55" s="41" t="s">
         <v>1510</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="F55" s="41" t="s">
         <v>1511</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D56" s="41" t="s">
         <v>1513</v>
       </c>
-      <c r="B56" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D56" s="41" t="s">
+      <c r="E56" s="41" t="s">
         <v>1514</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="F56" s="41" t="s">
         <v>1515</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>1517</v>
       </c>
-      <c r="B57" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D57" s="41" t="s">
+      <c r="E57" s="41" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F57" s="41" t="s">
         <v>1518</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>1520</v>
       </c>
-      <c r="B58" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="E58" s="41" t="s">
         <v>1521</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="F58" s="41" t="s">
         <v>1522</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38418,19 +38392,19 @@
         <v>60</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D59" s="41" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E59" s="41" t="s">
         <v>1524</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="F59" s="41" t="s">
         <v>1525</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38438,59 +38412,59 @@
         <v>53</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D60" s="41" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>1527</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D61" s="41" t="s">
         <v>1529</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D61" s="41" t="s">
+      <c r="E61" s="41" t="s">
         <v>1530</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="F61" s="41" t="s">
         <v>1531</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D62" s="41" t="s">
         <v>1533</v>
       </c>
-      <c r="B62" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D62" s="41" t="s">
+      <c r="E62" s="41" t="s">
         <v>1534</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="F62" s="41" t="s">
         <v>1535</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38498,433 +38472,433 @@
         <v>88</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D63" s="41" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E63" s="41" t="s">
         <v>1537</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="F63" s="41" t="s">
         <v>1538</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C64" s="41"/>
       <c r="D64" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E64" s="41" t="s">
         <v>1541</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="F64" s="41" t="s">
         <v>1542</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="41" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E65" s="41" t="s">
         <v>1545</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="F65" s="41" t="s">
         <v>1546</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="41" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E66" s="41" t="s">
         <v>1549</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="F66" s="41" t="s">
         <v>1550</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C67" s="41"/>
       <c r="D67" s="41" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E67" s="41" t="s">
         <v>1553</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="F67" s="41" t="s">
         <v>1554</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="41" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E68" s="41" t="s">
         <v>1557</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="F68" s="41" t="s">
         <v>1558</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E69" s="41" t="s">
         <v>1549</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="F69" s="41" t="s">
         <v>1550</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="41" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E70" s="41" t="s">
         <v>1562</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="F70" s="41" t="s">
         <v>1563</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C71" s="41"/>
       <c r="D71" s="41" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E71" s="41" t="s">
         <v>1566</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="F71" s="41" t="s">
         <v>1567</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="41" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C72" s="41"/>
       <c r="D72" s="41" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E72" s="41" t="s">
         <v>1570</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="F72" s="41" t="s">
         <v>1571</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C73" s="41"/>
       <c r="D73" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E73" s="41" t="s">
         <v>1574</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="F73" s="41" t="s">
         <v>1575</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="41" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E74" s="41" t="s">
         <v>1578</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="F74" s="41" t="s">
         <v>1579</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="41" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E75" s="41" t="s">
         <v>1582</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="F75" s="41" t="s">
         <v>1583</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C76" s="41"/>
       <c r="D76" s="41" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E76" s="41" t="s">
         <v>1586</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="F76" s="41" t="s">
         <v>1587</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="41" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E77" s="41" t="s">
         <v>1586</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="F77" s="41" t="s">
         <v>1587</v>
-      </c>
-      <c r="F77" s="41" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="41" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E78" s="41" t="s">
         <v>1591</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="F78" s="41" t="s">
         <v>1592</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="41" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E79" s="41" t="s">
         <v>1586</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="F79" s="41" t="s">
         <v>1587</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="41" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E80" s="41" t="s">
         <v>1596</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="F80" s="41" t="s">
         <v>1597</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="41" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C81" s="41"/>
       <c r="D81" s="41" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E81" s="41" t="s">
         <v>1600</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="F81" s="41" t="s">
         <v>1601</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="41" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C82" s="41"/>
       <c r="D82" s="41" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E82" s="41" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F82" s="41" t="s">
         <v>1601</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="41" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="41" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E83" s="41" t="s">
         <v>1606</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="F83" s="41" t="s">
         <v>1607</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="41" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E84" s="41" t="s">
         <v>1610</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="F84" s="41" t="s">
         <v>1611</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="41" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C85" s="41"/>
       <c r="D85" s="41" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E85" s="41" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F85" s="41" t="s">
         <v>1601</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C86" s="41"/>
       <c r="D86" s="41" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E86" s="41" t="s">
         <v>1616</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="F86" s="41" t="s">
         <v>1617</v>
-      </c>
-      <c r="F86" s="41" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -39872,10 +39846,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>941</v>
@@ -39895,7 +39869,7 @@
         <v>1165</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>944</v>
@@ -39916,7 +39890,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>947</v>
@@ -39934,10 +39908,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>950</v>
@@ -39955,10 +39929,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>952</v>
@@ -39976,10 +39950,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>954</v>
@@ -39997,10 +39971,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>957</v>
@@ -40018,10 +39992,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>959</v>
@@ -40039,10 +40013,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>961</v>
@@ -40060,10 +40034,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>1623</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>1624</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>964</v>
@@ -40081,10 +40055,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>966</v>
@@ -40105,7 +40079,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>968</v>
@@ -40126,7 +40100,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>970</v>
@@ -40144,10 +40118,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>973</v>
@@ -40165,10 +40139,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>975</v>
@@ -40186,10 +40160,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>977</v>
@@ -40207,10 +40181,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>979</v>
@@ -40228,10 +40202,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>981</v>
@@ -40249,10 +40223,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>983</v>
@@ -40270,10 +40244,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>985</v>
@@ -40291,10 +40265,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>988</v>
@@ -40312,10 +40286,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>991</v>
@@ -40333,10 +40307,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>994</v>
@@ -40354,10 +40328,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>996</v>
@@ -40375,10 +40349,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="41" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I25" s="44" t="s">
         <v>998</v>
@@ -40396,10 +40370,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I26" s="42" t="s">
         <v>1000</v>
@@ -40417,10 +40391,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="41" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>1002</v>
@@ -40438,10 +40412,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I28" s="42" t="s">
         <v>1004</v>
@@ -40462,7 +40436,7 @@
         <v>111</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I29" s="44" t="s">
         <v>1006</v>
@@ -40483,7 +40457,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>1009</v>
@@ -40501,7 +40475,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>1069</v>
@@ -40522,10 +40496,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I32" s="42" t="s">
         <v>1014</v>
@@ -40543,10 +40517,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I33" s="42" t="s">
         <v>1016</v>
@@ -40564,10 +40538,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>1018</v>
@@ -40585,10 +40559,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>1020</v>
@@ -40606,10 +40580,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="41" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>1022</v>
@@ -40627,10 +40601,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>1024</v>
@@ -40648,10 +40622,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -40659,10 +40633,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="41" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>1026</v>
@@ -40680,10 +40654,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>1028</v>
@@ -40701,10 +40675,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I41" s="42" t="s">
         <v>1030</v>
@@ -40722,10 +40696,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="51" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>1032</v>
@@ -40743,10 +40717,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="51" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I43" s="44" t="s">
         <v>1034</v>
@@ -40764,10 +40738,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>1037</v>
@@ -40785,7 +40759,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>1228</v>
@@ -40809,7 +40783,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I46" s="44" t="s">
         <v>1042</v>
@@ -40830,7 +40804,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I47" s="42" t="s">
         <v>1045</v>
@@ -40851,7 +40825,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I48" s="42" t="s">
         <v>1047</v>
@@ -40872,7 +40846,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>1049</v>
@@ -40890,10 +40864,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I50" s="42" t="s">
         <v>1051</v>
@@ -40914,7 +40888,7 @@
         <v>122</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>1053</v>
@@ -40932,10 +40906,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>1055</v>
@@ -40953,10 +40927,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>1057</v>
@@ -40977,7 +40951,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I54" s="44" t="s">
         <v>1060</v>
@@ -40995,10 +40969,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I55" s="42" t="s">
         <v>1063</v>
@@ -41016,10 +40990,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I56" s="42" t="s">
         <v>1065</v>
@@ -41037,10 +41011,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>1067</v>
@@ -41058,10 +41032,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>1069</v>
@@ -41079,10 +41053,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I59" s="42" t="s">
         <v>1072</v>
@@ -41100,10 +41074,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="41" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>1075</v>
@@ -41121,10 +41095,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>1077</v>
@@ -41145,7 +41119,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I62" s="44" t="s">
         <v>1079</v>
@@ -41166,7 +41140,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I63" s="42" t="s">
         <v>1082</v>
@@ -41184,10 +41158,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I64" s="43" t="s">
         <v>1084</v>
@@ -41205,10 +41179,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>1086</v>
@@ -41229,7 +41203,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I66" s="43" t="s">
         <v>1088</v>
@@ -41247,10 +41221,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I67" s="44" t="s">
         <v>1090</v>
@@ -41268,10 +41242,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>1092</v>
@@ -41289,10 +41263,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>1094</v>
@@ -41310,10 +41284,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I70" s="44" t="s">
         <v>1096</v>
@@ -41331,10 +41305,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="51" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I71" s="44" t="s">
         <v>1098</v>
@@ -41352,10 +41326,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="51" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I72" s="43" t="s">
         <v>1100</v>
@@ -41373,10 +41347,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I73" s="43" t="s">
         <v>1102</v>
@@ -41394,10 +41368,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="41" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>1104</v>
@@ -41415,10 +41389,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I75" s="44" t="s">
         <v>1107</v>
@@ -41436,10 +41410,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>1110</v>
@@ -41457,10 +41431,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I77" s="42" t="s">
         <v>1112</v>
@@ -41478,10 +41452,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I78" s="43" t="s">
         <v>1114</v>
@@ -41499,10 +41473,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I79" s="44" t="s">
         <v>1116</v>
@@ -41520,10 +41494,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="41" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I80" s="43" t="s">
         <v>1119</v>
@@ -41541,10 +41515,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="41" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>1121</v>
@@ -41562,10 +41536,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="41" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I82" s="42" t="s">
         <v>1123</v>
@@ -41583,10 +41557,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="41" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I83" s="43" t="s">
         <v>1126</v>
@@ -41604,10 +41578,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="41" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I84" s="44" t="s">
         <v>1128</v>
@@ -41625,10 +41599,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="41" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>1130</v>
@@ -41646,10 +41620,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I86" s="43" t="s">
         <v>1132</v>
@@ -41667,10 +41641,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="41" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>1134</v>
@@ -41688,10 +41662,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="41" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I88" s="42" t="s">
         <v>1136</v>
@@ -41709,10 +41683,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="41" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I89" s="44" t="s">
         <v>1138</v>
@@ -41730,10 +41704,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="41" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>1140</v>
@@ -41751,10 +41725,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="41" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I91" s="44" t="s">
         <v>1143</v>
@@ -42759,7 +42733,7 @@
         <v>1287</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>1288</v>
+        <v>1631</v>
       </c>
       <c r="L157" s="41" t="str">
         <f aca="false">CONCATENATE(I157,",")</f>
@@ -42768,10 +42742,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I158" s="42" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J158" s="13" t="s">
         <v>1289</v>
-      </c>
-      <c r="J158" s="13" t="s">
-        <v>1290</v>
       </c>
       <c r="K158" s="10" t="s">
         <v>146</v>
@@ -42783,10 +42757,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I159" s="42" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J159" s="13" t="s">
         <v>1291</v>
-      </c>
-      <c r="J159" s="13" t="s">
-        <v>1292</v>
       </c>
       <c r="K159" s="10" t="s">
         <v>146</v>
@@ -42798,10 +42772,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I160" s="44" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J160" s="44" t="s">
         <v>1293</v>
-      </c>
-      <c r="J160" s="44" t="s">
-        <v>1294</v>
       </c>
       <c r="K160" s="10" t="s">
         <v>313</v>
@@ -42813,10 +42787,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I161" s="44" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J161" s="44" t="s">
         <v>1295</v>
-      </c>
-      <c r="J161" s="44" t="s">
-        <v>1296</v>
       </c>
       <c r="K161" s="10" t="s">
         <v>146</v>
@@ -42828,10 +42802,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I162" s="42" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J162" s="13" t="s">
         <v>1297</v>
-      </c>
-      <c r="J162" s="13" t="s">
-        <v>1298</v>
       </c>
       <c r="K162" s="10" t="s">
         <v>217</v>
@@ -42843,10 +42817,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I163" s="43" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J163" s="43" t="s">
         <v>1299</v>
-      </c>
-      <c r="J163" s="43" t="s">
-        <v>1300</v>
       </c>
       <c r="K163" s="10" t="s">
         <v>146</v>
@@ -42858,10 +42832,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I164" s="43" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J164" s="43" t="s">
         <v>1301</v>
-      </c>
-      <c r="J164" s="43" t="s">
-        <v>1302</v>
       </c>
       <c r="K164" s="10" t="s">
         <v>146</v>
@@ -42873,10 +42847,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I165" s="44" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J165" s="44" t="s">
         <v>1303</v>
-      </c>
-      <c r="J165" s="44" t="s">
-        <v>1304</v>
       </c>
       <c r="K165" s="10" t="s">
         <v>217</v>
@@ -42888,10 +42862,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I166" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J166" s="13" t="s">
         <v>1305</v>
-      </c>
-      <c r="J166" s="13" t="s">
-        <v>1306</v>
       </c>
       <c r="K166" s="10" t="s">
         <v>146</v>
@@ -42903,10 +42877,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I167" s="42" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J167" s="42" t="s">
         <v>1307</v>
-      </c>
-      <c r="J167" s="42" t="s">
-        <v>1308</v>
       </c>
       <c r="K167" s="10" t="s">
         <v>146</v>
@@ -42918,10 +42892,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I168" s="43" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J168" s="43" t="s">
         <v>1309</v>
-      </c>
-      <c r="J168" s="43" t="s">
-        <v>1310</v>
       </c>
       <c r="K168" s="10" t="s">
         <v>146</v>
@@ -42933,10 +42907,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I169" s="42" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J169" s="13" t="s">
         <v>1311</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>1312</v>
       </c>
       <c r="K169" s="10" t="s">
         <v>146</v>
@@ -42948,10 +42922,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I170" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J170" s="13" t="s">
         <v>1313</v>
-      </c>
-      <c r="J170" s="13" t="s">
-        <v>1314</v>
       </c>
       <c r="K170" s="13" t="s">
         <v>317</v>
@@ -42963,10 +42937,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I171" s="43" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J171" s="43" t="s">
         <v>1316</v>
-      </c>
-      <c r="J171" s="43" t="s">
-        <v>1317</v>
       </c>
       <c r="K171" s="10" t="s">
         <v>146</v>
@@ -42978,10 +42952,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I172" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J172" s="13" t="s">
         <v>1318</v>
-      </c>
-      <c r="J172" s="13" t="s">
-        <v>1319</v>
       </c>
       <c r="K172" s="10" t="s">
         <v>147</v>
@@ -42993,10 +42967,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I173" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>1320</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>1321</v>
       </c>
       <c r="K173" s="10" t="s">
         <v>139</v>
@@ -43008,10 +42982,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I174" s="44" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J174" s="44" t="s">
         <v>1323</v>
-      </c>
-      <c r="J174" s="44" t="s">
-        <v>1324</v>
       </c>
       <c r="K174" s="10" t="s">
         <v>154</v>
@@ -43023,10 +42997,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I175" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>1325</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>1326</v>
       </c>
       <c r="K175" s="10" t="s">
         <v>146</v>
@@ -43038,10 +43012,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I176" s="43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J176" s="43" t="s">
         <v>1327</v>
-      </c>
-      <c r="J176" s="43" t="s">
-        <v>1328</v>
       </c>
       <c r="K176" s="10" t="s">
         <v>146</v>
@@ -43053,10 +43027,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I177" s="44" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J177" s="44" t="s">
         <v>1329</v>
-      </c>
-      <c r="J177" s="44" t="s">
-        <v>1330</v>
       </c>
       <c r="K177" s="10" t="s">
         <v>154</v>
@@ -43068,10 +43042,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I178" s="44" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J178" s="44" t="s">
         <v>1331</v>
-      </c>
-      <c r="J178" s="44" t="s">
-        <v>1332</v>
       </c>
       <c r="K178" s="10" t="s">
         <v>146</v>
@@ -43083,10 +43057,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I179" s="43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J179" s="43" t="s">
         <v>1333</v>
-      </c>
-      <c r="J179" s="43" t="s">
-        <v>1334</v>
       </c>
       <c r="K179" s="10" t="s">
         <v>146</v>
@@ -43098,10 +43072,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I180" s="42" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J180" s="13" t="s">
         <v>1335</v>
-      </c>
-      <c r="J180" s="13" t="s">
-        <v>1336</v>
       </c>
       <c r="K180" s="10" t="s">
         <v>146</v>
@@ -43113,10 +43087,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I181" s="42" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J181" s="13" t="s">
         <v>1337</v>
-      </c>
-      <c r="J181" s="13" t="s">
-        <v>1338</v>
       </c>
       <c r="K181" s="10" t="s">
         <v>146</v>

--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Trademark Config" sheetId="1" state="visible" r:id="rId3"/>
@@ -939,20 +939,67 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">======
-ID#AAABsjToARM
-Abhradip Choudhuri    (2025-10-20 12:39:21)
-please use ALL if a certain brand+expression is available in all regions, for rest use the country code reference added here and add them like eg: US,UK,CA,AB etc there should be no spaces after the comma
-1 total reaction
-Ilaria Ciavarella reacted with 👍 at 2025-10-20 13:00 PM</t>
+ID#AAABsjToAQE
+    (2025-10-20 12:39:21)
+Brand Names are the actual names that will be returned when the user generates the legal copy. If there is a comma, this single Display Name will be treated as 2 in the trademark</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABsjToAPw
+    (2025-10-20 12:39:21)
+Entity Names are the entities associated with the brand in Columns A and B.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABsjToARc
+    (2025-10-20 12:39:21)
+Entity is Brand - This column was created for brands within JDFOB that are not registered trademarks. For example, Single Barrel is not a registered trademark, but we still want to provide a trademark for users to use. As a result, this returns "[Entity Name] is a registered trademark..."</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABsjToAPg
+    (2025-10-20 12:39:21)
+Third Party - this column was created specifically for third party trademarks within our brands. As of now, Sinatra Century and Select are the only brands where this is applicable.</t>
         </r>
       </text>
     </comment>
@@ -992,7 +1039,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="1643">
   <si>
     <t xml:space="preserve">Display Names</t>
   </si>
@@ -9788,9 +9835,6 @@
     <t xml:space="preserve">Available Countries</t>
   </si>
   <si>
-    <t xml:space="preserve">ilara please read comment</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
@@ -9870,7 +9914,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10040,6 +10084,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -10140,7 +10190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10353,6 +10403,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10362,7 +10416,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -10406,6 +10460,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -10670,9 +10732,9 @@
   <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14524,7 +14586,7 @@
         <v>1341</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14532,7 +14594,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,7 +14602,7 @@
         <v>1348</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14548,7 +14610,7 @@
         <v>1352</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14556,7 +14618,7 @@
         <v>1356</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14564,7 +14626,7 @@
         <v>1360</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,7 +14634,7 @@
         <v>1361</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14580,7 +14642,7 @@
         <v>1362</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14588,7 +14650,7 @@
         <v>1364</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,7 +14658,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14604,7 +14666,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14612,7 +14674,7 @@
         <v>1368</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14620,7 +14682,7 @@
         <v>1372</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,7 +14690,7 @@
         <v>1376</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14636,7 +14698,7 @@
         <v>1380</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14644,7 +14706,7 @@
         <v>1384</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14652,7 +14714,7 @@
         <v>1385</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14660,7 +14722,7 @@
         <v>1389</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14668,7 +14730,7 @@
         <v>1392</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14676,7 +14738,7 @@
         <v>1395</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,7 +14746,7 @@
         <v>1399</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14692,7 +14754,7 @@
         <v>1403</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14700,7 +14762,7 @@
         <v>1406</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14708,7 +14770,7 @@
         <v>1410</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14716,7 +14778,7 @@
         <v>1414</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14724,7 +14786,7 @@
         <v>1418</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14732,7 +14794,7 @@
         <v>111</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14740,7 +14802,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14748,7 +14810,7 @@
         <v>1429</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14756,7 +14818,7 @@
         <v>1433</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14764,7 +14826,7 @@
         <v>1437</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14772,7 +14834,7 @@
         <v>1441</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14780,7 +14842,7 @@
         <v>1445</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,7 +14850,7 @@
         <v>1449</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14796,7 +14858,7 @@
         <v>1452</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14804,7 +14866,7 @@
         <v>1456</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14812,7 +14874,7 @@
         <v>1460</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14820,7 +14882,7 @@
         <v>1461</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14828,7 +14890,7 @@
         <v>1462</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14836,23 +14898,23 @@
         <v>1466</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="52" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14860,7 +14922,7 @@
         <v>79</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14868,7 +14930,7 @@
         <v>82</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14876,7 +14938,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14884,7 +14946,7 @@
         <v>130</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14892,7 +14954,7 @@
         <v>1478</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,7 +14962,7 @@
         <v>122</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14908,7 +14970,7 @@
         <v>1485</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14916,7 +14978,7 @@
         <v>1489</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14924,7 +14986,7 @@
         <v>124</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14932,7 +14994,7 @@
         <v>1496</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14940,7 +15002,7 @@
         <v>1500</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14948,7 +15010,7 @@
         <v>1504</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14956,7 +15018,7 @@
         <v>1508</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14964,7 +15026,7 @@
         <v>1512</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14972,7 +15034,7 @@
         <v>1516</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14980,7 +15042,7 @@
         <v>1519</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,7 +15050,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14996,7 +15058,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15004,7 +15066,7 @@
         <v>1528</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15012,7 +15074,7 @@
         <v>1532</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,7 +15082,7 @@
         <v>88</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15028,7 +15090,7 @@
         <v>1539</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15036,7 +15098,7 @@
         <v>1543</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15044,7 +15106,7 @@
         <v>1547</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15052,7 +15114,7 @@
         <v>1551</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15060,7 +15122,7 @@
         <v>1555</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15068,7 +15130,7 @@
         <v>1559</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15076,7 +15138,7 @@
         <v>1560</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15084,7 +15146,7 @@
         <v>1564</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15092,7 +15154,7 @@
         <v>1568</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,7 +15162,7 @@
         <v>1572</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,7 +15170,7 @@
         <v>1576</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15116,7 +15178,7 @@
         <v>1580</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15124,7 +15186,7 @@
         <v>1584</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,7 +15194,7 @@
         <v>1588</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15140,7 +15202,7 @@
         <v>1589</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15148,7 +15210,7 @@
         <v>1593</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15156,7 +15218,7 @@
         <v>1594</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15164,7 +15226,7 @@
         <v>1598</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15172,7 +15234,7 @@
         <v>1602</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15180,7 +15242,7 @@
         <v>1604</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,7 +15250,7 @@
         <v>1608</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15196,7 +15258,7 @@
         <v>1612</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,7 +15266,7 @@
         <v>1614</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
   </sheetData>
@@ -15230,7 +15292,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21070,7 +21132,7 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -39828,16 +39890,19 @@
   </sheetPr>
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="91.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.75"/>
@@ -39851,6 +39916,18 @@
       <c r="B1" s="41" t="s">
         <v>1618</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>941</v>
       </c>
@@ -39869,7 +39946,7 @@
         <v>1165</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1619</v>
+        <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>944</v>
@@ -39890,7 +39967,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>947</v>
@@ -39911,7 +39991,7 @@
         <v>1348</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>950</v>
@@ -39932,7 +40012,7 @@
         <v>1352</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>952</v>
@@ -39953,7 +40033,7 @@
         <v>1356</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>954</v>
@@ -39974,7 +40054,7 @@
         <v>1360</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>957</v>
@@ -39995,7 +40075,7 @@
         <v>1361</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>959</v>
@@ -40016,7 +40096,7 @@
         <v>1362</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>961</v>
@@ -40034,10 +40114,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>1622</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>1623</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>964</v>
@@ -40058,7 +40138,7 @@
         <v>1364</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>966</v>
@@ -40079,7 +40159,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>968</v>
@@ -40100,7 +40180,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>970</v>
@@ -40121,7 +40201,7 @@
         <v>1368</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>973</v>
@@ -40142,7 +40222,7 @@
         <v>1372</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>975</v>
@@ -40163,7 +40243,7 @@
         <v>1376</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>977</v>
@@ -40184,7 +40264,7 @@
         <v>1380</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>979</v>
@@ -40205,7 +40285,7 @@
         <v>1384</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>981</v>
@@ -40226,7 +40306,7 @@
         <v>1385</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>983</v>
@@ -40247,7 +40327,7 @@
         <v>1389</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>985</v>
@@ -40268,7 +40348,7 @@
         <v>1392</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>988</v>
@@ -40288,8 +40368,8 @@
       <c r="A22" s="41" t="s">
         <v>1395</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>1624</v>
+      <c r="B22" s="52" t="s">
+        <v>1623</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>991</v>
@@ -40310,7 +40390,7 @@
         <v>1399</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>994</v>
@@ -40331,7 +40411,7 @@
         <v>1403</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>996</v>
@@ -40352,7 +40432,7 @@
         <v>1406</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I25" s="44" t="s">
         <v>998</v>
@@ -40373,7 +40453,7 @@
         <v>1410</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I26" s="42" t="s">
         <v>1000</v>
@@ -40394,7 +40474,7 @@
         <v>1414</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>1002</v>
@@ -40415,7 +40495,7 @@
         <v>1418</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I28" s="42" t="s">
         <v>1004</v>
@@ -40436,7 +40516,7 @@
         <v>111</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I29" s="44" t="s">
         <v>1006</v>
@@ -40457,7 +40537,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>1009</v>
@@ -40475,7 +40555,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>1069</v>
@@ -40499,7 +40579,7 @@
         <v>1429</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I32" s="42" t="s">
         <v>1014</v>
@@ -40520,7 +40600,7 @@
         <v>1433</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I33" s="42" t="s">
         <v>1016</v>
@@ -40541,7 +40621,7 @@
         <v>1437</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>1018</v>
@@ -40562,7 +40642,7 @@
         <v>1441</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>1020</v>
@@ -40583,7 +40663,7 @@
         <v>1445</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>1022</v>
@@ -40604,7 +40684,7 @@
         <v>1449</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>1024</v>
@@ -40625,7 +40705,7 @@
         <v>1452</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -40636,7 +40716,7 @@
         <v>1456</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>1026</v>
@@ -40657,7 +40737,7 @@
         <v>1460</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>1028</v>
@@ -40678,7 +40758,7 @@
         <v>1461</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I41" s="42" t="s">
         <v>1030</v>
@@ -40699,7 +40779,7 @@
         <v>1462</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>1032</v>
@@ -40720,7 +40800,7 @@
         <v>1466</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I43" s="44" t="s">
         <v>1034</v>
@@ -40738,10 +40818,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>1037</v>
@@ -40759,7 +40839,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>1228</v>
@@ -40783,7 +40863,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I46" s="44" t="s">
         <v>1042</v>
@@ -40804,7 +40884,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I47" s="42" t="s">
         <v>1045</v>
@@ -40825,7 +40905,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I48" s="42" t="s">
         <v>1047</v>
@@ -40846,7 +40926,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>1049</v>
@@ -40867,7 +40947,7 @@
         <v>1478</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I50" s="42" t="s">
         <v>1051</v>
@@ -40888,7 +40968,7 @@
         <v>122</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>1053</v>
@@ -40909,7 +40989,7 @@
         <v>1485</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>1055</v>
@@ -40930,7 +41010,7 @@
         <v>1489</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>1057</v>
@@ -40951,7 +41031,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I54" s="44" t="s">
         <v>1060</v>
@@ -40972,7 +41052,7 @@
         <v>1496</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I55" s="42" t="s">
         <v>1063</v>
@@ -40993,7 +41073,7 @@
         <v>1500</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I56" s="42" t="s">
         <v>1065</v>
@@ -41014,7 +41094,7 @@
         <v>1504</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>1067</v>
@@ -41035,7 +41115,7 @@
         <v>1508</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>1069</v>
@@ -41056,7 +41136,7 @@
         <v>1512</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I59" s="42" t="s">
         <v>1072</v>
@@ -41077,7 +41157,7 @@
         <v>1516</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>1075</v>
@@ -41098,7 +41178,7 @@
         <v>1519</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>1077</v>
@@ -41119,7 +41199,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I62" s="44" t="s">
         <v>1079</v>
@@ -41140,7 +41220,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I63" s="42" t="s">
         <v>1082</v>
@@ -41161,7 +41241,7 @@
         <v>1528</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I64" s="43" t="s">
         <v>1084</v>
@@ -41182,7 +41262,7 @@
         <v>1532</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>1086</v>
@@ -41203,7 +41283,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I66" s="43" t="s">
         <v>1088</v>
@@ -41220,11 +41300,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="53" t="s">
         <v>1539</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I67" s="44" t="s">
         <v>1090</v>
@@ -41245,7 +41325,7 @@
         <v>1543</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>1092</v>
@@ -41266,7 +41346,7 @@
         <v>1547</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>1094</v>
@@ -41287,7 +41367,7 @@
         <v>1551</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I70" s="44" t="s">
         <v>1096</v>
@@ -41305,10 +41385,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="51" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I71" s="44" t="s">
         <v>1098</v>
@@ -41326,10 +41406,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="51" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I72" s="43" t="s">
         <v>1100</v>
@@ -41350,7 +41430,7 @@
         <v>1555</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I73" s="43" t="s">
         <v>1102</v>
@@ -41371,7 +41451,7 @@
         <v>1559</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>1104</v>
@@ -41392,7 +41472,7 @@
         <v>1560</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I75" s="44" t="s">
         <v>1107</v>
@@ -41413,7 +41493,7 @@
         <v>1564</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>1110</v>
@@ -41434,7 +41514,7 @@
         <v>1568</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I77" s="42" t="s">
         <v>1112</v>
@@ -41455,7 +41535,7 @@
         <v>1572</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I78" s="43" t="s">
         <v>1114</v>
@@ -41476,7 +41556,7 @@
         <v>1576</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I79" s="44" t="s">
         <v>1116</v>
@@ -41497,7 +41577,7 @@
         <v>1580</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I80" s="43" t="s">
         <v>1119</v>
@@ -41518,7 +41598,7 @@
         <v>1584</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>1121</v>
@@ -41539,7 +41619,7 @@
         <v>1588</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I82" s="42" t="s">
         <v>1123</v>
@@ -41560,7 +41640,7 @@
         <v>1589</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I83" s="43" t="s">
         <v>1126</v>
@@ -41581,7 +41661,7 @@
         <v>1593</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I84" s="44" t="s">
         <v>1128</v>
@@ -41602,7 +41682,7 @@
         <v>1594</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>1130</v>
@@ -41623,7 +41703,7 @@
         <v>1598</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I86" s="43" t="s">
         <v>1132</v>
@@ -41644,7 +41724,7 @@
         <v>1602</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>1134</v>
@@ -41665,7 +41745,7 @@
         <v>1604</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I88" s="42" t="s">
         <v>1136</v>
@@ -41686,7 +41766,7 @@
         <v>1608</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I89" s="44" t="s">
         <v>1138</v>
@@ -41707,7 +41787,7 @@
         <v>1612</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>1140</v>
@@ -41728,7 +41808,7 @@
         <v>1614</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I91" s="44" t="s">
         <v>1143</v>
@@ -42733,7 +42813,7 @@
         <v>1287</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="L157" s="41" t="str">
         <f aca="false">CONCATENATE(I157,",")</f>

--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -946,7 +946,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAABsjToAQE
@@ -962,7 +961,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAABsjToAPw
@@ -972,22 +970,6 @@
       </text>
     </comment>
     <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">======
-ID#AAABsjToARc
-    (2025-10-20 12:39:21)
-Entity is Brand - This column was created for brands within JDFOB that are not registered trademarks. For example, Single Barrel is not a registered trademark, but we still want to provide a trademark for users to use. As a result, this returns "[Entity Name] is a registered trademark..."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1021,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="1651">
   <si>
     <t xml:space="preserve">Display Names</t>
   </si>
@@ -9856,10 +9838,34 @@
     <t xml:space="preserve">Gentleman Jack (RTDs)</t>
   </si>
   <si>
+    <t xml:space="preserve">Jack Daniel's and The Coca-Cola Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCA-COLA is a trademark of The Coca-Cola Company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old No.7, Gentleman Jack, Tennessee Fire, Jack Fire, Tennessee Honey, Jack Honey, Tennessee Apple, Tennessee Rye, Single Barrel, No. 27 Gold, Country Cocktails, Winter Jack, Sinatra Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old No.7, Gentleman Jack, Single Barrel, No. 27 Gold, Sinatra Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old No.7, Gentleman Jack, Single Barrel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jack Daniel's Old No.7</t>
   </si>
   <si>
     <t xml:space="preserve">Jack Daniel's Old No.7 Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee Fire, Jack Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee Honey, Jack Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Cocktails</t>
   </si>
   <si>
     <t xml:space="preserve">Old Forester Family of Brands + Mint Julep</t>
@@ -10190,7 +10196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10396,6 +10402,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -14586,7 +14600,7 @@
         <v>1341</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14594,7 +14608,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14602,7 +14616,7 @@
         <v>1348</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14610,7 +14624,7 @@
         <v>1352</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14618,7 +14632,7 @@
         <v>1356</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14626,7 +14640,7 @@
         <v>1360</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,7 +14648,7 @@
         <v>1361</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14642,7 +14656,7 @@
         <v>1362</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14650,7 +14664,7 @@
         <v>1364</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14658,7 +14672,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14666,7 +14680,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14674,7 +14688,7 @@
         <v>1368</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14682,7 +14696,7 @@
         <v>1372</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14690,7 +14704,7 @@
         <v>1376</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14698,7 +14712,7 @@
         <v>1380</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14706,7 +14720,7 @@
         <v>1384</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14714,7 +14728,7 @@
         <v>1385</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14722,7 +14736,7 @@
         <v>1389</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14730,7 +14744,7 @@
         <v>1392</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14738,7 +14752,7 @@
         <v>1395</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14746,7 +14760,7 @@
         <v>1399</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,7 +14768,7 @@
         <v>1403</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14762,7 +14776,7 @@
         <v>1406</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14770,7 +14784,7 @@
         <v>1410</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14778,7 +14792,7 @@
         <v>1414</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14786,7 +14800,7 @@
         <v>1418</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14794,7 +14808,7 @@
         <v>111</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14802,7 +14816,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,7 +14824,7 @@
         <v>1429</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14818,7 +14832,7 @@
         <v>1433</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14826,7 +14840,7 @@
         <v>1437</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14834,7 +14848,7 @@
         <v>1441</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14842,7 +14856,7 @@
         <v>1445</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14850,7 +14864,7 @@
         <v>1449</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14858,7 +14872,7 @@
         <v>1452</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14866,7 +14880,7 @@
         <v>1456</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14874,7 +14888,7 @@
         <v>1460</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14882,7 +14896,7 @@
         <v>1461</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,7 +14904,7 @@
         <v>1462</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14898,23 +14912,23 @@
         <v>1466</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52" t="s">
-        <v>1626</v>
+      <c r="A41" s="54" t="s">
+        <v>1631</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52" t="s">
-        <v>1627</v>
+      <c r="A42" s="54" t="s">
+        <v>1632</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,7 +14936,7 @@
         <v>79</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,7 +14944,7 @@
         <v>82</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,7 +14952,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14946,7 +14960,7 @@
         <v>130</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14954,7 +14968,7 @@
         <v>1478</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14962,7 +14976,7 @@
         <v>122</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14970,7 +14984,7 @@
         <v>1485</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,7 +14992,7 @@
         <v>1489</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14986,7 +15000,7 @@
         <v>124</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14994,7 +15008,7 @@
         <v>1496</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15002,7 +15016,7 @@
         <v>1500</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,7 +15024,7 @@
         <v>1504</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15018,7 +15032,7 @@
         <v>1508</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15026,7 +15040,7 @@
         <v>1512</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,7 +15048,7 @@
         <v>1516</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15042,7 +15056,7 @@
         <v>1519</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15050,7 +15064,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,7 +15072,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15066,7 +15080,7 @@
         <v>1528</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15074,7 +15088,7 @@
         <v>1532</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15082,7 +15096,7 @@
         <v>88</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,7 +15104,7 @@
         <v>1539</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15098,7 +15112,7 @@
         <v>1543</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15106,7 +15120,7 @@
         <v>1547</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15114,7 +15128,7 @@
         <v>1551</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15122,7 +15136,7 @@
         <v>1555</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15130,7 +15144,7 @@
         <v>1559</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15138,7 +15152,7 @@
         <v>1560</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,7 +15160,7 @@
         <v>1564</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15154,7 +15168,7 @@
         <v>1568</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15162,7 +15176,7 @@
         <v>1572</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15170,7 +15184,7 @@
         <v>1576</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15178,7 +15192,7 @@
         <v>1580</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15186,7 +15200,7 @@
         <v>1584</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15194,7 +15208,7 @@
         <v>1588</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,7 +15216,7 @@
         <v>1589</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15210,7 +15224,7 @@
         <v>1593</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15218,7 +15232,7 @@
         <v>1594</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15226,7 +15240,7 @@
         <v>1598</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15234,7 +15248,7 @@
         <v>1602</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,7 +15256,7 @@
         <v>1604</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15250,7 +15264,7 @@
         <v>1608</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15258,7 +15272,7 @@
         <v>1612</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15266,7 +15280,7 @@
         <v>1614</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
     </row>
   </sheetData>
@@ -39890,16 +39904,16 @@
   </sheetPr>
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.63"/>
@@ -39922,12 +39936,10 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4"/>
       <c r="I1" s="2" t="s">
         <v>941</v>
       </c>
@@ -39945,9 +39957,13 @@
       <c r="B2" s="41" t="s">
         <v>1165</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>42</v>
-      </c>
+      <c r="C2" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="53"/>
       <c r="I2" s="13" t="s">
         <v>944</v>
       </c>
@@ -39969,9 +39985,13 @@
       <c r="B3" s="41" t="s">
         <v>1619</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="C3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="53"/>
       <c r="I3" s="42" t="s">
         <v>947</v>
       </c>
@@ -39993,6 +40013,13 @@
       <c r="B4" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="53"/>
       <c r="I4" s="42" t="s">
         <v>950</v>
       </c>
@@ -40014,6 +40041,13 @@
       <c r="B5" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="53"/>
       <c r="I5" s="43" t="s">
         <v>952</v>
       </c>
@@ -40035,6 +40069,13 @@
       <c r="B6" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="53"/>
       <c r="I6" s="44" t="s">
         <v>954</v>
       </c>
@@ -40056,6 +40097,13 @@
       <c r="B7" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="53"/>
       <c r="I7" s="13" t="s">
         <v>957</v>
       </c>
@@ -40077,6 +40125,13 @@
       <c r="B8" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="53"/>
       <c r="I8" s="44" t="s">
         <v>959</v>
       </c>
@@ -40098,6 +40153,13 @@
       <c r="B9" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="53"/>
       <c r="I9" s="13" t="s">
         <v>961</v>
       </c>
@@ -40119,6 +40181,13 @@
       <c r="B10" s="41" t="s">
         <v>1622</v>
       </c>
+      <c r="C10" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="53"/>
       <c r="I10" s="13" t="s">
         <v>964</v>
       </c>
@@ -40140,6 +40209,13 @@
       <c r="B11" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="53"/>
       <c r="I11" s="43" t="s">
         <v>966</v>
       </c>
@@ -40161,6 +40237,13 @@
       <c r="B12" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="53"/>
       <c r="I12" s="43" t="s">
         <v>968</v>
       </c>
@@ -40182,6 +40265,13 @@
       <c r="B13" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="53"/>
       <c r="I13" s="13" t="s">
         <v>970</v>
       </c>
@@ -40203,6 +40293,13 @@
       <c r="B14" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="53"/>
       <c r="I14" s="13" t="s">
         <v>973</v>
       </c>
@@ -40224,6 +40321,13 @@
       <c r="B15" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="53"/>
       <c r="I15" s="13" t="s">
         <v>975</v>
       </c>
@@ -40245,6 +40349,13 @@
       <c r="B16" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="53"/>
       <c r="I16" s="43" t="s">
         <v>977</v>
       </c>
@@ -40266,6 +40377,13 @@
       <c r="B17" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C17" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="53"/>
       <c r="I17" s="42" t="s">
         <v>979</v>
       </c>
@@ -40287,6 +40405,13 @@
       <c r="B18" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C18" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="53"/>
       <c r="I18" s="43" t="s">
         <v>981</v>
       </c>
@@ -40308,6 +40433,13 @@
       <c r="B19" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C19" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="53"/>
       <c r="I19" s="13" t="s">
         <v>983</v>
       </c>
@@ -40329,6 +40461,13 @@
       <c r="B20" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C20" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="53"/>
       <c r="I20" s="13" t="s">
         <v>985</v>
       </c>
@@ -40350,6 +40489,13 @@
       <c r="B21" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C21" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="53"/>
       <c r="I21" s="43" t="s">
         <v>988</v>
       </c>
@@ -40368,9 +40514,16 @@
       <c r="A22" s="41" t="s">
         <v>1395</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="54" t="s">
         <v>1623</v>
       </c>
+      <c r="C22" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="53"/>
       <c r="I22" s="13" t="s">
         <v>991</v>
       </c>
@@ -40392,6 +40545,13 @@
       <c r="B23" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C23" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="53"/>
       <c r="I23" s="42" t="s">
         <v>994</v>
       </c>
@@ -40413,6 +40573,13 @@
       <c r="B24" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C24" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="53"/>
       <c r="I24" s="42" t="s">
         <v>996</v>
       </c>
@@ -40434,6 +40601,13 @@
       <c r="B25" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C25" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="53"/>
       <c r="I25" s="44" t="s">
         <v>998</v>
       </c>
@@ -40455,6 +40629,13 @@
       <c r="B26" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C26" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="53"/>
       <c r="I26" s="42" t="s">
         <v>1000</v>
       </c>
@@ -40476,6 +40657,13 @@
       <c r="B27" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="53"/>
       <c r="I27" s="42" t="s">
         <v>1002</v>
       </c>
@@ -40497,6 +40685,13 @@
       <c r="B28" s="41" t="s">
         <v>1624</v>
       </c>
+      <c r="C28" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="53"/>
       <c r="I28" s="42" t="s">
         <v>1004</v>
       </c>
@@ -40518,6 +40713,13 @@
       <c r="B29" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C29" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="53"/>
       <c r="I29" s="44" t="s">
         <v>1006</v>
       </c>
@@ -40539,6 +40741,13 @@
       <c r="B30" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C30" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="53"/>
       <c r="I30" s="43" t="s">
         <v>1009</v>
       </c>
@@ -40560,6 +40769,13 @@
       <c r="B31" s="41" t="s">
         <v>1069</v>
       </c>
+      <c r="C31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="53"/>
       <c r="I31" s="44" t="s">
         <v>1011</v>
       </c>
@@ -40581,6 +40797,13 @@
       <c r="B32" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C32" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="53"/>
       <c r="I32" s="42" t="s">
         <v>1014</v>
       </c>
@@ -40602,6 +40825,13 @@
       <c r="B33" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="53"/>
       <c r="I33" s="42" t="s">
         <v>1016</v>
       </c>
@@ -40623,6 +40853,13 @@
       <c r="B34" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="53"/>
       <c r="I34" s="44" t="s">
         <v>1018</v>
       </c>
@@ -40644,6 +40881,13 @@
       <c r="B35" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C35" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="53"/>
       <c r="I35" s="13" t="s">
         <v>1020</v>
       </c>
@@ -40665,6 +40909,13 @@
       <c r="B36" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C36" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="53"/>
       <c r="I36" s="43" t="s">
         <v>1022</v>
       </c>
@@ -40686,6 +40937,13 @@
       <c r="B37" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C37" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="53"/>
       <c r="I37" s="13" t="s">
         <v>1024</v>
       </c>
@@ -40707,6 +40965,15 @@
       <c r="B38" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C38" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>1627</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -40718,6 +40985,13 @@
       <c r="B39" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C39" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="53"/>
       <c r="I39" s="13" t="s">
         <v>1026</v>
       </c>
@@ -40739,6 +41013,13 @@
       <c r="B40" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C40" s="52" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="53"/>
       <c r="I40" s="13" t="s">
         <v>1028</v>
       </c>
@@ -40760,6 +41041,13 @@
       <c r="B41" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C41" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="53"/>
       <c r="I41" s="42" t="s">
         <v>1030</v>
       </c>
@@ -40781,6 +41069,13 @@
       <c r="B42" s="51" t="s">
         <v>1620</v>
       </c>
+      <c r="C42" s="52" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="53"/>
       <c r="I42" s="43" t="s">
         <v>1032</v>
       </c>
@@ -40802,6 +41097,13 @@
       <c r="B43" s="51" t="s">
         <v>1620</v>
       </c>
+      <c r="C43" s="52" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="53"/>
       <c r="I43" s="44" t="s">
         <v>1034</v>
       </c>
@@ -40818,11 +41120,18 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C44" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="53"/>
       <c r="I44" s="43" t="s">
         <v>1037</v>
       </c>
@@ -40839,11 +41148,18 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>1228</v>
       </c>
+      <c r="C45" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="53"/>
       <c r="I45" s="44" t="s">
         <v>1040</v>
       </c>
@@ -40865,6 +41181,13 @@
       <c r="B46" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C46" s="52" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="53"/>
       <c r="I46" s="44" t="s">
         <v>1042</v>
       </c>
@@ -40886,6 +41209,13 @@
       <c r="B47" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C47" s="52" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="53"/>
       <c r="I47" s="42" t="s">
         <v>1045</v>
       </c>
@@ -40907,6 +41237,13 @@
       <c r="B48" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C48" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="53"/>
       <c r="I48" s="42" t="s">
         <v>1047</v>
       </c>
@@ -40928,6 +41265,13 @@
       <c r="B49" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C49" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="53"/>
       <c r="I49" s="13" t="s">
         <v>1049</v>
       </c>
@@ -40949,6 +41293,13 @@
       <c r="B50" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C50" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="53"/>
       <c r="I50" s="42" t="s">
         <v>1051</v>
       </c>
@@ -40970,6 +41321,13 @@
       <c r="B51" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C51" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="53"/>
       <c r="I51" s="43" t="s">
         <v>1053</v>
       </c>
@@ -40991,6 +41349,13 @@
       <c r="B52" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C52" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="53"/>
       <c r="I52" s="13" t="s">
         <v>1055</v>
       </c>
@@ -41012,6 +41377,13 @@
       <c r="B53" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C53" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="53"/>
       <c r="I53" s="13" t="s">
         <v>1057</v>
       </c>
@@ -41033,6 +41405,13 @@
       <c r="B54" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="53"/>
       <c r="I54" s="44" t="s">
         <v>1060</v>
       </c>
@@ -41054,6 +41433,13 @@
       <c r="B55" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C55" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="53"/>
       <c r="I55" s="42" t="s">
         <v>1063</v>
       </c>
@@ -41075,6 +41461,13 @@
       <c r="B56" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C56" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="53"/>
       <c r="I56" s="42" t="s">
         <v>1065</v>
       </c>
@@ -41096,6 +41489,13 @@
       <c r="B57" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C57" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="53"/>
       <c r="I57" s="13" t="s">
         <v>1067</v>
       </c>
@@ -41117,6 +41517,13 @@
       <c r="B58" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C58" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="53"/>
       <c r="I58" s="13" t="s">
         <v>1069</v>
       </c>
@@ -41138,6 +41545,13 @@
       <c r="B59" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C59" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="53"/>
       <c r="I59" s="42" t="s">
         <v>1072</v>
       </c>
@@ -41159,6 +41573,13 @@
       <c r="B60" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C60" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="53"/>
       <c r="I60" s="13" t="s">
         <v>1075</v>
       </c>
@@ -41180,6 +41601,13 @@
       <c r="B61" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C61" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="53"/>
       <c r="I61" s="43" t="s">
         <v>1077</v>
       </c>
@@ -41201,6 +41629,15 @@
       <c r="B62" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C62" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="I62" s="44" t="s">
         <v>1079</v>
       </c>
@@ -41222,6 +41659,13 @@
       <c r="B63" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C63" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="53"/>
       <c r="I63" s="42" t="s">
         <v>1082</v>
       </c>
@@ -41243,6 +41687,13 @@
       <c r="B64" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C64" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="53"/>
       <c r="I64" s="43" t="s">
         <v>1084</v>
       </c>
@@ -41264,6 +41715,13 @@
       <c r="B65" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C65" s="52" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="53"/>
       <c r="I65" s="43" t="s">
         <v>1086</v>
       </c>
@@ -41285,6 +41743,13 @@
       <c r="B66" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C66" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="53"/>
       <c r="I66" s="43" t="s">
         <v>1088</v>
       </c>
@@ -41300,12 +41765,19 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="55" t="s">
         <v>1539</v>
       </c>
       <c r="B67" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C67" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="53"/>
       <c r="I67" s="44" t="s">
         <v>1090</v>
       </c>
@@ -41327,6 +41799,13 @@
       <c r="B68" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C68" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="53"/>
       <c r="I68" s="13" t="s">
         <v>1092</v>
       </c>
@@ -41348,6 +41827,13 @@
       <c r="B69" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C69" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="53"/>
       <c r="I69" s="13" t="s">
         <v>1094</v>
       </c>
@@ -41369,6 +41855,13 @@
       <c r="B70" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C70" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="53"/>
       <c r="I70" s="44" t="s">
         <v>1096</v>
       </c>
@@ -41385,11 +41878,18 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="51" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="B71" s="51" t="s">
         <v>1620</v>
       </c>
+      <c r="C71" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="53"/>
       <c r="I71" s="44" t="s">
         <v>1098</v>
       </c>
@@ -41406,11 +41906,18 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="51" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="B72" s="51" t="s">
         <v>1620</v>
       </c>
+      <c r="C72" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="53"/>
       <c r="I72" s="43" t="s">
         <v>1100</v>
       </c>
@@ -41432,6 +41939,13 @@
       <c r="B73" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C73" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="53"/>
       <c r="I73" s="43" t="s">
         <v>1102</v>
       </c>
@@ -41453,6 +41967,13 @@
       <c r="B74" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C74" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="53"/>
       <c r="I74" s="13" t="s">
         <v>1104</v>
       </c>
@@ -41474,6 +41995,13 @@
       <c r="B75" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C75" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="53"/>
       <c r="I75" s="44" t="s">
         <v>1107</v>
       </c>
@@ -41495,6 +42023,13 @@
       <c r="B76" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C76" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="53"/>
       <c r="I76" s="13" t="s">
         <v>1110</v>
       </c>
@@ -41516,6 +42051,13 @@
       <c r="B77" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C77" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="53"/>
       <c r="I77" s="42" t="s">
         <v>1112</v>
       </c>
@@ -41537,6 +42079,13 @@
       <c r="B78" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C78" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="53"/>
       <c r="I78" s="43" t="s">
         <v>1114</v>
       </c>
@@ -41558,6 +42107,13 @@
       <c r="B79" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C79" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="53"/>
       <c r="I79" s="44" t="s">
         <v>1116</v>
       </c>
@@ -41579,6 +42135,13 @@
       <c r="B80" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C80" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="53"/>
       <c r="I80" s="43" t="s">
         <v>1119</v>
       </c>
@@ -41600,6 +42163,13 @@
       <c r="B81" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C81" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="53"/>
       <c r="I81" s="13" t="s">
         <v>1121</v>
       </c>
@@ -41621,6 +42191,13 @@
       <c r="B82" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C82" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="53"/>
       <c r="I82" s="42" t="s">
         <v>1123</v>
       </c>
@@ -41642,6 +42219,13 @@
       <c r="B83" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C83" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="53"/>
       <c r="I83" s="43" t="s">
         <v>1126</v>
       </c>
@@ -41663,6 +42247,13 @@
       <c r="B84" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C84" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="53"/>
       <c r="I84" s="44" t="s">
         <v>1128</v>
       </c>
@@ -41684,6 +42275,13 @@
       <c r="B85" s="41" t="s">
         <v>1619</v>
       </c>
+      <c r="C85" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="53"/>
       <c r="I85" s="13" t="s">
         <v>1130</v>
       </c>
@@ -41705,6 +42303,13 @@
       <c r="B86" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C86" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="53"/>
       <c r="I86" s="43" t="s">
         <v>1132</v>
       </c>
@@ -41726,6 +42331,13 @@
       <c r="B87" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C87" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="53"/>
       <c r="I87" s="13" t="s">
         <v>1134</v>
       </c>
@@ -41747,6 +42359,13 @@
       <c r="B88" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C88" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="53"/>
       <c r="I88" s="42" t="s">
         <v>1136</v>
       </c>
@@ -41768,6 +42387,13 @@
       <c r="B89" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C89" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="53"/>
       <c r="I89" s="44" t="s">
         <v>1138</v>
       </c>
@@ -41789,6 +42415,13 @@
       <c r="B90" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C90" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="53"/>
       <c r="I90" s="13" t="s">
         <v>1140</v>
       </c>
@@ -41810,6 +42443,13 @@
       <c r="B91" s="41" t="s">
         <v>1620</v>
       </c>
+      <c r="C91" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="53"/>
       <c r="I91" s="44" t="s">
         <v>1143</v>
       </c>
@@ -41831,6 +42471,13 @@
       <c r="B92" s="41" t="s">
         <v>1223</v>
       </c>
+      <c r="C92" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="53"/>
       <c r="I92" s="42" t="s">
         <v>1145</v>
       </c>
@@ -42813,7 +43460,7 @@
         <v>1287</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="L157" s="41" t="str">
         <f aca="false">CONCATENATE(I157,",")</f>

--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trademark Config" sheetId="1" state="visible" r:id="rId3"/>
@@ -914,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -976,7 +976,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAABsjToAPg
@@ -1021,7 +1020,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="1673">
   <si>
     <t xml:space="preserve">Display Names</t>
   </si>
@@ -8992,6 +8991,9 @@
     <t xml:space="preserve">+1 whitin JD Portfolio</t>
   </si>
   <si>
+    <t xml:space="preserve">Class &amp; Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">TTB Statement - Full</t>
   </si>
   <si>
@@ -9007,6 +9009,9 @@
     <t xml:space="preserve">Benriach (FOB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Scotch Whisky</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scotch Whisky, 43-46% Alc. by Vol., Imported by Brown-Forman, Louisville, KY. </t>
   </si>
   <si>
@@ -9055,6 +9060,9 @@
     <t xml:space="preserve">Brown-Forman (multi-brand)</t>
   </si>
   <si>
+    <t xml:space="preserve">Liqueur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chambord Black Raspberry Liqueur, 16.5% Alc. by Vol., Imported by Brown-Forman, Louisville, KY.</t>
   </si>
   <si>
@@ -9067,6 +9075,9 @@
     <t xml:space="preserve">Coopers' Craft (FOB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kentucky Straight Bourbon Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coopers' Craft Kentucky Straight Bourbon Whiskey, 41.1-50% Alc. by Vol., Brown-Forman, Louisville, KY. </t>
   </si>
   <si>
@@ -9103,6 +9114,9 @@
     <t xml:space="preserve">Diplomático Ambassador</t>
   </si>
   <si>
+    <t xml:space="preserve">Rum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diplomático Rum, 47% Alc. by Vol. Imported by Brown-Forman, Louisville, Kentucky.</t>
   </si>
   <si>
@@ -9181,6 +9195,9 @@
     <t xml:space="preserve">El Jimador Premium Flavored Malt Beverage</t>
   </si>
   <si>
+    <t xml:space="preserve">Flavored Malt Beverage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium Flavored Malt Beverage, Brown-Forman Beverages, Louisville, Kentucky.</t>
   </si>
   <si>
@@ -9193,6 +9210,9 @@
     <t xml:space="preserve">El Jimador Silver/Reposado/Añejo Tequila</t>
   </si>
   <si>
+    <t xml:space="preserve">Tequila</t>
+  </si>
+  <si>
     <t xml:space="preserve">el Jimador Tequila, 40% Alc. by Vol., Imported by Brown-Forman, Louisville, KY.</t>
   </si>
   <si>
@@ -9217,6 +9237,9 @@
     <t xml:space="preserve">El Jimador New Mix (RTD)</t>
   </si>
   <si>
+    <t xml:space="preserve">Tequila Specialty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tequila Specialty, 5% Alc. by Vol. Imported by Brown-Forman, Louisville, Kentucky.</t>
   </si>
   <si>
@@ -9226,6 +9249,9 @@
     <t xml:space="preserve">Tequila Specialty, 5% ALC/VOL, Imp. by Brown-Forman, Lou, KY.</t>
   </si>
   <si>
+    <t xml:space="preserve">Gin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fords Gin London Dry Gin, 45% Alc. by Vol., The Fords Gin Co., Louisville, KY.</t>
   </si>
   <si>
@@ -9238,6 +9264,9 @@
     <t xml:space="preserve">Jack Daniel Distillery, Lynchburg, Tennessee.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tennessee Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Double Mellowed Tennessee Whiskey, 40% Alc. by Vol. (80 proof.) Distilled and bottled by JACK DANIEL DISTILLERY, Lynchburg, Tennessee. </t>
   </si>
   <si>
@@ -9319,6 +9348,9 @@
     <t xml:space="preserve">Jack Daniel's &amp; Coca Cola 5% ALC/VOL (RTD)</t>
   </si>
   <si>
+    <t xml:space="preserve">Whiskey Specialty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whiskey Specialty, 5% Alc. by Vol., Jack Daniel Distillery, Lynchburg, TN</t>
   </si>
   <si>
@@ -9397,6 +9429,9 @@
     <t xml:space="preserve">Jack Daniel's Tennessee Rye Whiskey</t>
   </si>
   <si>
+    <t xml:space="preserve">Tennessee Rye Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jack Daniel’s Tennessee Rye Whiskey, 45% Alc. by Vol. (90 proof.) Distilled and bottled by Jack Daniel Distillery, Lynchburg, Tennessee.</t>
   </si>
   <si>
@@ -9439,6 +9474,9 @@
     <t xml:space="preserve">Tennessee Rye Whiskey 50% ALC/VOL, JACK DANIEL DIST, Lynchburg, TN</t>
   </si>
   <si>
+    <t xml:space="preserve">Blend of Straight Whiskeys</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blend of Straight Whiskeys, 50% alc. by vol. (100 proof). Distilled and bottled by the Jack Daniel Distillery, Lynchburg, Tennessee.</t>
   </si>
   <si>
@@ -9520,6 +9558,9 @@
     <t xml:space="preserve">Jack Daniel's American Single Malt</t>
   </si>
   <si>
+    <t xml:space="preserve">American Malt Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">American Malt Whiskey, 45% alc/vol (90 Proof). Distilled and bottled by Jack Daniel Distillery, Lynchburg, Tennessee.</t>
   </si>
   <si>
@@ -9580,6 +9621,9 @@
     <t xml:space="preserve">Mint Julep</t>
   </si>
   <si>
+    <t xml:space="preserve">Mint Julep Cocktail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Old Forester Mint Julep Cocktail, 30% Alc. by Vol., Old Forester Distilling Company at Louisville in Kentucky.</t>
   </si>
   <si>
@@ -9592,6 +9636,9 @@
     <t xml:space="preserve">Old Forester (FOB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Straight Bourbon Whisky</t>
+  </si>
+  <si>
     <t xml:space="preserve">Old Forester Straight Bourbon Whisky, 43-57.5% Alc. by Vol., Old Forester Distilling Company at Louisville in Kentucky. </t>
   </si>
   <si>
@@ -9667,6 +9714,9 @@
     <t xml:space="preserve">Old Forester Rye Whiskey</t>
   </si>
   <si>
+    <t xml:space="preserve">Straight Rye Whisky</t>
+  </si>
+  <si>
     <t xml:space="preserve">Old Forester Kentucky Straight Rye Whisky, 50% Alc. by Vol., Old Forester Distilling Company at Louisville in Kentucky.</t>
   </si>
   <si>
@@ -9679,6 +9729,9 @@
     <t xml:space="preserve">Slane Blended Irish Whiskey</t>
   </si>
   <si>
+    <t xml:space="preserve">Irish Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slane Irish Whiskey, a blend, 40% Alc. by Vol., Imported by Brown-Forman, Louisville, KY.</t>
   </si>
   <si>
@@ -9745,6 +9798,9 @@
     <t xml:space="preserve">Woodford Reserve (FOB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kentucky Straight Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Woodford Reserve Kentucky Straight Whiskey, 45.2% Alc. by Vol., The Woodford Reserve Distillery, Versailles, KY.</t>
   </si>
   <si>
@@ -9775,6 +9831,9 @@
     <t xml:space="preserve">Woodford Reserve Malt Whiskey</t>
   </si>
   <si>
+    <t xml:space="preserve">Kentucky Straight Malt Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Woodford Reserve Kentucky Straight Malt Whiskey, 45.2% Alc. by Vol. The Woodford Reserve Distillery, Versailles, KY.</t>
   </si>
   <si>
@@ -9787,6 +9846,9 @@
     <t xml:space="preserve">Woodford Reserve Rye</t>
   </si>
   <si>
+    <t xml:space="preserve">Kentucky Straight Rye Whiskey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Woodford Reserve Kentucky Straight Rye Whiskey, 45.2% Alc. by Vol. The Woodford Reserve Distillery, Versailles, KY.</t>
   </si>
   <si>
@@ -9803,6 +9865,9 @@
   </si>
   <si>
     <t xml:space="preserve">Woodford Reserve Wheat Whiskey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky Straight Wheat Whiskey</t>
   </si>
   <si>
     <t xml:space="preserve">Woodford Reserve Kentucky Straight Wheat Whiskey, 45.2% Alc. by Vol. The Woodford Reserve Distillery, Versailles, KY.</t>
@@ -9920,7 +9985,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10088,12 +10153,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -10401,15 +10460,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -14600,7 +14659,7 @@
         <v>1341</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1639</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14608,63 +14667,63 @@
         <v>98</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14672,7 +14731,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14680,127 +14739,127 @@
         <v>93</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1641</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1641</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1641</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1643</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1643</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1643</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1643</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14808,7 +14867,7 @@
         <v>111</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1644</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14816,119 +14875,119 @@
         <v>31</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1645</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>1445</v>
+        <v>1455</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>1646</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>1462</v>
+        <v>1473</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="54" t="s">
-        <v>1631</v>
+        <v>1653</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>1632</v>
+        <v>1654</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14936,7 +14995,7 @@
         <v>79</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14944,7 +15003,7 @@
         <v>82</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14952,7 +15011,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14960,15 +15019,15 @@
         <v>130</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
-        <v>1478</v>
+        <v>1489</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14976,23 +15035,23 @@
         <v>122</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15000,63 +15059,63 @@
         <v>124</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="34" t="s">
-        <v>1496</v>
+        <v>1509</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>1504</v>
+        <v>1517</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="34" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="34" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="34" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15064,7 +15123,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15072,23 +15131,23 @@
         <v>53</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="34" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="34" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>1648</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15096,191 +15155,191 @@
         <v>88</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="34" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="34" t="s">
-        <v>1543</v>
+        <v>1558</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="34" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="34" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="34" t="s">
-        <v>1559</v>
+        <v>1575</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="34" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="34" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="34" t="s">
-        <v>1568</v>
+        <v>1584</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="34" t="s">
-        <v>1572</v>
+        <v>1589</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>1650</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="34" t="s">
-        <v>1576</v>
+        <v>1594</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="34" t="s">
-        <v>1580</v>
+        <v>1598</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34" t="s">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="34" t="s">
-        <v>1588</v>
+        <v>1606</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="34" t="s">
-        <v>1589</v>
+        <v>1607</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="34" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
-        <v>1594</v>
+        <v>1612</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="s">
-        <v>1598</v>
+        <v>1617</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
-        <v>1602</v>
+        <v>1621</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
-        <v>1604</v>
+        <v>1623</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="34" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="34" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="34" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
     </row>
   </sheetData>
@@ -37330,10 +37389,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB994"/>
+  <dimension ref="A1:AC994"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37341,10 +37400,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="135.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="99.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="98.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="7" style="1" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="135.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="99.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="98.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="8" style="1" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37357,7 +37417,7 @@
       <c r="C1" s="50" t="s">
         <v>1343</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>1344</v>
       </c>
       <c r="E1" s="50" t="s">
@@ -37366,7 +37426,9 @@
       <c r="F1" s="50" t="s">
         <v>1346</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50" t="s">
+        <v>1347</v>
+      </c>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
@@ -37388,147 +37450,168 @@
       <c r="Z1" s="49"/>
       <c r="AA1" s="49"/>
       <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>1347</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="D2" s="52"/>
       <c r="E2" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>1348</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>1347</v>
-      </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
-        <v>1349</v>
+      <c r="D3" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>1351</v>
+        <v>1352</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
-        <v>1353</v>
+      <c r="D4" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>1355</v>
+        <v>1356</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C5" s="41"/>
-      <c r="D5" s="41" t="s">
-        <v>1357</v>
+      <c r="D5" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>1359</v>
+        <v>1360</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="51" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>1360</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>1359</v>
+      <c r="G6" s="41" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="51" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>1361</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C8" s="41"/>
-      <c r="D8" s="41" t="s">
-        <v>1363</v>
+      <c r="D8" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>1359</v>
+        <v>1360</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>1347</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="D9" s="52"/>
       <c r="E9" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37536,17 +37619,20 @@
         <v>17</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
-        <v>1365</v>
+      <c r="D10" s="51" t="s">
+        <v>1367</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>1367</v>
+        <v>1369</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37554,287 +37640,333 @@
         <v>93</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
-        <v>1347</v>
-      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="41" t="s">
-        <v>1369</v>
+      <c r="D12" s="51" t="s">
+        <v>1372</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>1371</v>
+        <v>1374</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
-        <v>1373</v>
-      </c>
       <c r="E13" s="41" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>1375</v>
+        <v>1378</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="41" t="s">
-        <v>1377</v>
+      <c r="D14" s="51" t="s">
+        <v>1372</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>1379</v>
+        <v>1382</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>1381</v>
+      <c r="D15" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>1383</v>
+        <v>1387</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C16" s="41"/>
-      <c r="D16" s="41" t="s">
-        <v>1381</v>
+      <c r="D16" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>1383</v>
+        <v>1387</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="51" t="s">
         <v>1385</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="s">
-        <v>1386</v>
-      </c>
       <c r="E17" s="41" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>1388</v>
+        <v>1392</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C18" s="41"/>
-      <c r="D18" s="41" t="s">
-        <v>1381</v>
+      <c r="D18" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>1391</v>
+        <v>1395</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
-        <v>1386</v>
+      <c r="D19" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>1394</v>
+        <v>1398</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
-        <v>1396</v>
+      <c r="D20" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>1398</v>
+        <v>1402</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="41" t="s">
-        <v>1400</v>
+      <c r="D21" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>1402</v>
+        <v>1406</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
-        <v>1400</v>
+      <c r="D22" s="51" t="s">
+        <v>1385</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>1405</v>
+        <v>1409</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
-        <v>1407</v>
+      <c r="D23" s="51" t="s">
+        <v>1412</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>1409</v>
+        <v>1414</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
-        <v>1411</v>
+      <c r="D24" s="51" t="s">
+        <v>1417</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>1413</v>
+        <v>1419</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="41" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
-        <v>1415</v>
+      <c r="D25" s="51" t="s">
+        <v>1417</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>1417</v>
+        <v>1423</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="51" t="s">
-        <v>1418</v>
+      <c r="A26" s="53" t="s">
+        <v>1425</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C26" s="51"/>
+        <v>1348</v>
+      </c>
+      <c r="C26" s="53"/>
       <c r="D26" s="51" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>1421</v>
+        <v>1426</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37842,17 +37974,20 @@
         <v>111</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="41" t="s">
-        <v>1422</v>
+      <c r="D27" s="51" t="s">
+        <v>1430</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>1423</v>
+        <v>1431</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>1424</v>
+        <v>1432</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37860,287 +37995,328 @@
         <v>31</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>1426</v>
+        <v>1434</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>1428</v>
+        <v>1437</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="51" t="s">
         <v>1430</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>1432</v>
+        <v>1441</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="41" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="41" t="s">
-        <v>1434</v>
+      <c r="D30" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>1436</v>
+        <v>1445</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="41" t="s">
-        <v>1438</v>
+      <c r="D31" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>1439</v>
+        <v>1448</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>1440</v>
+        <v>1449</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="41" t="s">
-        <v>1442</v>
+      <c r="D32" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>1444</v>
+        <v>1453</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
-        <v>1445</v>
+        <v>1455</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C33" s="41"/>
-      <c r="D33" s="41" t="s">
-        <v>1446</v>
+      <c r="D33" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>1448</v>
+        <v>1457</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C34" s="41"/>
-      <c r="D34" s="41" t="s">
-        <v>1450</v>
+      <c r="D34" s="51" t="s">
+        <v>1417</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>1412</v>
+        <v>1460</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>1451</v>
+        <v>1419</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>1453</v>
+        <v>1434</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>1454</v>
+        <v>1464</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>1455</v>
+        <v>1465</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="41" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>1457</v>
+        <v>1434</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>1458</v>
+        <v>1468</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>1459</v>
+        <v>1469</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>1425</v>
-      </c>
+        <v>1434</v>
+      </c>
+      <c r="D37" s="52"/>
       <c r="E37" s="41" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>1425</v>
+        <v>1434</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>1425</v>
-      </c>
+        <v>1434</v>
+      </c>
+      <c r="D38" s="52"/>
       <c r="E38" s="41" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>1425</v>
+        <v>1434</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="41" t="s">
-        <v>1462</v>
+        <v>1473</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>1463</v>
+        <v>1434</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>1465</v>
+        <v>1475</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>1463</v>
+        <v>1434</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>1465</v>
+        <v>1475</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>1467</v>
+        <v>1478</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>1468</v>
+        <v>1434</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>1427</v>
+        <v>1479</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>1469</v>
+        <v>1437</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>1470</v>
+        <v>1481</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>1471</v>
+        <v>1434</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>1472</v>
+        <v>1482</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>1473</v>
+        <v>1483</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38148,19 +38324,22 @@
         <v>79</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>1474</v>
+        <v>1434</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>1475</v>
+        <v>1485</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>1476</v>
+        <v>1486</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38168,19 +38347,22 @@
         <v>82</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>1474</v>
+        <v>1434</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>1475</v>
+        <v>1485</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>1476</v>
+        <v>1486</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38188,19 +38370,22 @@
         <v>76</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>1477</v>
+        <v>1434</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>1476</v>
+        <v>1486</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38208,39 +38393,45 @@
         <v>130</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>1477</v>
+        <v>1434</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>1476</v>
+        <v>1486</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="41" t="s">
-        <v>1478</v>
+        <v>1489</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>1479</v>
+        <v>1434</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>1490</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>1481</v>
+        <v>1492</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38248,59 +38439,68 @@
         <v>122</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>1482</v>
+        <v>1434</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>1483</v>
+        <v>1494</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>1484</v>
+        <v>1495</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>1486</v>
+        <v>1434</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>1487</v>
+        <v>1498</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>1488</v>
+        <v>1499</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D50" s="41" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D50" s="51" t="s">
         <v>1490</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>1491</v>
+        <v>1502</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>1492</v>
+        <v>1503</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38308,159 +38508,183 @@
         <v>124</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>1493</v>
+        <v>1434</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>1505</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>1495</v>
+        <v>1507</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>1496</v>
+        <v>1509</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>1497</v>
+        <v>1434</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>1499</v>
+        <v>1511</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>1501</v>
+        <v>1434</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>1490</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>1503</v>
+        <v>1515</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="41" t="s">
-        <v>1504</v>
+        <v>1517</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>1505</v>
+        <v>1434</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>1507</v>
+        <v>1519</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>1509</v>
+        <v>1434</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>1490</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>1510</v>
+        <v>1522</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>1511</v>
+        <v>1523</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>1513</v>
+        <v>1434</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>1515</v>
+        <v>1527</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>1517</v>
+        <v>1434</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>1518</v>
+        <v>1527</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>1520</v>
+        <v>1434</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>1533</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>1522</v>
+        <v>1535</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38468,19 +38692,22 @@
         <v>60</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>1523</v>
+        <v>1434</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>1524</v>
+        <v>1537</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>1525</v>
+        <v>1538</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38488,59 +38715,68 @@
         <v>53</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>1526</v>
+        <v>1434</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>1427</v>
+        <v>1540</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>1527</v>
+        <v>1437</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>1529</v>
+        <v>1434</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>1435</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>1530</v>
+        <v>1543</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>1531</v>
+        <v>1544</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="41" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>1533</v>
+        <v>1434</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>1412</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>1534</v>
+        <v>1547</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>1535</v>
+        <v>1548</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38548,1343 +38784,3231 @@
         <v>88</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>1536</v>
+        <v>1434</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>1463</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>1537</v>
+        <v>1550</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>1538</v>
+        <v>1551</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C64" s="41"/>
-      <c r="D64" s="41" t="s">
-        <v>1540</v>
+      <c r="D64" s="51" t="s">
+        <v>1554</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>1542</v>
+        <v>1556</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>1543</v>
+        <v>1558</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C65" s="41"/>
-      <c r="D65" s="41" t="s">
-        <v>1544</v>
+      <c r="D65" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>1545</v>
+        <v>1560</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>1546</v>
+        <v>1561</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C66" s="41"/>
-      <c r="D66" s="41" t="s">
-        <v>1548</v>
+      <c r="D66" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>1549</v>
+        <v>1564</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>1550</v>
+        <v>1565</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C67" s="41"/>
-      <c r="D67" s="41" t="s">
-        <v>1552</v>
+      <c r="D67" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>1553</v>
+        <v>1568</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>1554</v>
+        <v>1569</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C68" s="41"/>
-      <c r="D68" s="41" t="s">
-        <v>1556</v>
+      <c r="D68" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>1558</v>
+        <v>1573</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="51" t="s">
         <v>1559</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41" t="s">
-        <v>1548</v>
-      </c>
       <c r="E69" s="41" t="s">
-        <v>1549</v>
+        <v>1564</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>1550</v>
+        <v>1565</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C70" s="41"/>
-      <c r="D70" s="41" t="s">
-        <v>1561</v>
+      <c r="D70" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>1562</v>
+        <v>1577</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>1563</v>
+        <v>1578</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C71" s="41"/>
-      <c r="D71" s="41" t="s">
-        <v>1565</v>
+      <c r="D71" s="51" t="s">
+        <v>1559</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>1566</v>
+        <v>1581</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>1567</v>
+        <v>1582</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="41" t="s">
-        <v>1568</v>
+        <v>1584</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C72" s="41"/>
-      <c r="D72" s="41" t="s">
-        <v>1569</v>
+      <c r="D72" s="51" t="s">
+        <v>1585</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>1571</v>
+        <v>1587</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>1572</v>
+        <v>1589</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="41" t="s">
-        <v>1573</v>
+      <c r="D73" s="51" t="s">
+        <v>1590</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>1574</v>
+        <v>1591</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>1575</v>
+        <v>1592</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="41" t="s">
-        <v>1576</v>
+        <v>1594</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C74" s="41"/>
-      <c r="D74" s="41" t="s">
-        <v>1577</v>
+      <c r="D74" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>1578</v>
+        <v>1595</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>1579</v>
+        <v>1596</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>1580</v>
+        <v>1598</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C75" s="41"/>
-      <c r="D75" s="41" t="s">
-        <v>1581</v>
+      <c r="D75" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>1582</v>
+        <v>1599</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>1583</v>
+        <v>1600</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C76" s="41"/>
-      <c r="D76" s="41" t="s">
-        <v>1585</v>
+      <c r="D76" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>1587</v>
+        <v>1604</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>1588</v>
+        <v>1606</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C77" s="41"/>
-      <c r="D77" s="41" t="s">
-        <v>1585</v>
+      <c r="D77" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>1587</v>
+        <v>1604</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>1589</v>
+        <v>1607</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C78" s="41"/>
-      <c r="D78" s="41" t="s">
-        <v>1590</v>
+      <c r="D78" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>1591</v>
+        <v>1608</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>1592</v>
+        <v>1609</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C79" s="41"/>
-      <c r="D79" s="41" t="s">
-        <v>1585</v>
+      <c r="D79" s="51" t="s">
+        <v>1350</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>1587</v>
+        <v>1604</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="41" t="s">
-        <v>1594</v>
+        <v>1612</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C80" s="41"/>
-      <c r="D80" s="41" t="s">
-        <v>1595</v>
+      <c r="D80" s="51" t="s">
+        <v>1613</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>1597</v>
+        <v>1615</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="41" t="s">
-        <v>1598</v>
+        <v>1617</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C81" s="41"/>
-      <c r="D81" s="41" t="s">
-        <v>1599</v>
+      <c r="D81" s="51" t="s">
+        <v>1372</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>1600</v>
+        <v>1618</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>1601</v>
+        <v>1619</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="41" t="s">
-        <v>1602</v>
+        <v>1621</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C82" s="41"/>
-      <c r="D82" s="41" t="s">
-        <v>1603</v>
+      <c r="D82" s="51" t="s">
+        <v>1372</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>1600</v>
+        <v>1622</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>1601</v>
+        <v>1619</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="41" t="s">
-        <v>1604</v>
+        <v>1623</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C83" s="41"/>
-      <c r="D83" s="41" t="s">
-        <v>1605</v>
+      <c r="D83" s="51" t="s">
+        <v>1624</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>1606</v>
+        <v>1625</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>1607</v>
+        <v>1626</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="41" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C84" s="41"/>
-      <c r="D84" s="41" t="s">
-        <v>1609</v>
+      <c r="D84" s="51" t="s">
+        <v>1629</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>1610</v>
+        <v>1630</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>1611</v>
+        <v>1631</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="41" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C85" s="41"/>
-      <c r="D85" s="41" t="s">
-        <v>1613</v>
+      <c r="D85" s="51" t="s">
+        <v>1372</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>1600</v>
+        <v>1634</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>1601</v>
+        <v>1619</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C86" s="41"/>
-      <c r="D86" s="41" t="s">
-        <v>1615</v>
+      <c r="D86" s="51" t="s">
+        <v>1636</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>1616</v>
+        <v>1637</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>1638</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D87" s="52"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D88" s="52"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D89" s="52"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D90" s="52"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D91" s="52"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D92" s="52"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D93" s="52"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D94" s="52"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D95" s="52"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D96" s="52"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D97" s="52"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D98" s="52"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D99" s="52"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D100" s="52"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D101" s="52"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D102" s="52"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D103" s="52"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D104" s="52"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D105" s="52"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D106" s="52"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D107" s="52"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D108" s="52"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D109" s="52"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D110" s="52"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D111" s="52"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D112" s="52"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D113" s="52"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D114" s="52"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D115" s="52"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D116" s="52"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D117" s="52"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D118" s="52"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D119" s="52"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D120" s="52"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D121" s="52"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D122" s="52"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D123" s="52"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D124" s="52"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D125" s="52"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D126" s="52"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D127" s="52"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D128" s="52"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D129" s="52"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D130" s="52"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D131" s="52"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D132" s="52"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D133" s="52"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D134" s="52"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D135" s="52"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D136" s="52"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D137" s="52"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D138" s="52"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D139" s="52"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D140" s="52"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D141" s="52"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D142" s="52"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D143" s="52"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D144" s="52"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D145" s="52"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D146" s="52"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D147" s="52"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D148" s="52"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D149" s="52"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D150" s="52"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D151" s="52"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D152" s="52"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D153" s="52"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D154" s="52"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D155" s="52"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D156" s="52"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D157" s="52"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D158" s="52"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D159" s="52"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D160" s="52"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D161" s="52"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D162" s="52"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D163" s="52"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D164" s="52"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D165" s="52"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D166" s="52"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D167" s="52"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D168" s="52"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D169" s="52"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D170" s="52"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D171" s="52"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D172" s="52"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D173" s="52"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D174" s="52"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D175" s="52"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D176" s="52"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D177" s="52"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D178" s="52"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D179" s="52"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D180" s="52"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D181" s="52"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D182" s="52"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D183" s="52"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D184" s="52"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D185" s="52"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D186" s="52"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D187" s="52"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D188" s="52"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D189" s="52"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D190" s="52"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D191" s="52"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D192" s="52"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D193" s="52"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D194" s="52"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D195" s="52"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D196" s="52"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D197" s="52"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D198" s="52"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D199" s="52"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D200" s="52"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D201" s="52"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D202" s="52"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D203" s="52"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D204" s="52"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D205" s="52"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D206" s="52"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D207" s="52"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D208" s="52"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D209" s="52"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D210" s="52"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D211" s="52"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D212" s="52"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D213" s="52"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D214" s="52"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D215" s="52"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D216" s="52"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D217" s="52"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D218" s="52"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D219" s="52"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D220" s="52"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D221" s="52"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D222" s="52"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D223" s="52"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D224" s="52"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D225" s="52"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D226" s="52"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D227" s="52"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D228" s="52"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D229" s="52"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D230" s="52"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D231" s="52"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D232" s="52"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D233" s="52"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D234" s="52"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D235" s="52"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D236" s="52"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D237" s="52"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D238" s="52"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D239" s="52"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D240" s="52"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D241" s="52"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D242" s="52"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D243" s="52"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D244" s="52"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D245" s="52"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D246" s="52"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D247" s="52"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D248" s="52"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D249" s="52"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D250" s="52"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D251" s="52"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D252" s="52"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D253" s="52"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D254" s="52"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D255" s="52"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D256" s="52"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D257" s="52"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D258" s="52"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D259" s="52"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D260" s="52"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D261" s="52"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D262" s="52"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D263" s="52"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D264" s="52"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D265" s="52"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D266" s="52"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D267" s="52"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D268" s="52"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D269" s="52"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D270" s="52"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D271" s="52"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D272" s="52"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D273" s="52"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D274" s="52"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D275" s="52"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D276" s="52"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D277" s="52"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D278" s="52"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D279" s="52"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D280" s="52"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D281" s="52"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D282" s="52"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D283" s="52"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D284" s="52"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D285" s="52"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D286" s="52"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D287" s="52"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D288" s="52"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D289" s="52"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D290" s="52"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D291" s="52"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D292" s="52"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D293" s="52"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D294" s="52"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D295" s="52"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D296" s="52"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D297" s="52"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D298" s="52"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D299" s="52"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D300" s="52"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D301" s="52"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D302" s="52"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D303" s="52"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D304" s="52"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D305" s="52"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D306" s="52"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D307" s="52"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D308" s="52"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D309" s="52"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D310" s="52"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D311" s="52"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D312" s="52"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D313" s="52"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D314" s="52"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D315" s="52"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D316" s="52"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D317" s="52"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D318" s="52"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D319" s="52"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D320" s="52"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D321" s="52"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D322" s="52"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D323" s="52"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D324" s="52"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D325" s="52"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D326" s="52"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D327" s="52"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D328" s="52"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D329" s="52"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D330" s="52"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D331" s="52"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D332" s="52"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D333" s="52"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D334" s="52"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D335" s="52"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D336" s="52"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D337" s="52"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D338" s="52"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D339" s="52"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D340" s="52"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D341" s="52"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D342" s="52"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D343" s="52"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D344" s="52"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D345" s="52"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D346" s="52"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D347" s="52"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D348" s="52"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D349" s="52"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D350" s="52"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D351" s="52"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D352" s="52"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D353" s="52"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D354" s="52"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D355" s="52"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D356" s="52"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D357" s="52"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D358" s="52"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D359" s="52"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D360" s="52"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D361" s="52"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D362" s="52"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D363" s="52"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D364" s="52"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D365" s="52"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D366" s="52"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D367" s="52"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D368" s="52"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D369" s="52"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D370" s="52"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D371" s="52"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D372" s="52"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D373" s="52"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D374" s="52"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D375" s="52"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D376" s="52"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D377" s="52"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D378" s="52"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D379" s="52"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D380" s="52"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D381" s="52"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D382" s="52"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D383" s="52"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D384" s="52"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D385" s="52"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D386" s="52"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D387" s="52"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D388" s="52"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D389" s="52"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D390" s="52"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D391" s="52"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D392" s="52"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D393" s="52"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D394" s="52"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D395" s="52"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D396" s="52"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D397" s="52"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D398" s="52"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D399" s="52"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D400" s="52"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D401" s="52"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D402" s="52"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D403" s="52"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D404" s="52"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D405" s="52"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D406" s="52"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D407" s="52"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D408" s="52"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D409" s="52"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D410" s="52"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D411" s="52"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D412" s="52"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D413" s="52"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D414" s="52"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D415" s="52"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D416" s="52"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D417" s="52"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D418" s="52"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D419" s="52"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D420" s="52"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D421" s="52"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D422" s="52"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D423" s="52"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D424" s="52"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D425" s="52"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D426" s="52"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D427" s="52"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D428" s="52"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D429" s="52"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D430" s="52"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D431" s="52"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D432" s="52"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D433" s="52"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D434" s="52"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D435" s="52"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D436" s="52"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D437" s="52"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D438" s="52"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D439" s="52"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D440" s="52"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D441" s="52"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D442" s="52"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D443" s="52"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D444" s="52"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D445" s="52"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D446" s="52"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D447" s="52"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D448" s="52"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D449" s="52"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D450" s="52"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D451" s="52"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D452" s="52"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D453" s="52"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D454" s="52"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D455" s="52"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D456" s="52"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D457" s="52"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D458" s="52"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D459" s="52"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D460" s="52"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D461" s="52"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D462" s="52"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D463" s="52"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D464" s="52"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D465" s="52"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D466" s="52"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D467" s="52"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D468" s="52"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D469" s="52"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D470" s="52"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D471" s="52"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D472" s="52"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D473" s="52"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D474" s="52"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D475" s="52"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D476" s="52"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D477" s="52"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D478" s="52"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D479" s="52"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D480" s="52"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D481" s="52"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D482" s="52"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D483" s="52"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D484" s="52"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D485" s="52"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D486" s="52"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D487" s="52"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D488" s="52"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D489" s="52"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D490" s="52"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D491" s="52"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D492" s="52"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D493" s="52"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D494" s="52"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D495" s="52"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D496" s="52"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D497" s="52"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D498" s="52"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D499" s="52"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D500" s="52"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D501" s="52"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D502" s="52"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D503" s="52"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D504" s="52"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D505" s="52"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D506" s="52"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D507" s="52"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D508" s="52"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D509" s="52"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D510" s="52"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D511" s="52"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D512" s="52"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D513" s="52"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D514" s="52"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D515" s="52"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D516" s="52"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D517" s="52"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D518" s="52"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D519" s="52"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D520" s="52"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D521" s="52"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D522" s="52"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D523" s="52"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D524" s="52"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D525" s="52"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D526" s="52"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D527" s="52"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D528" s="52"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D529" s="52"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D530" s="52"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D531" s="52"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D532" s="52"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D533" s="52"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D534" s="52"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D535" s="52"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D536" s="52"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D537" s="52"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D538" s="52"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D539" s="52"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D540" s="52"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D541" s="52"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D542" s="52"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D543" s="52"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D544" s="52"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D545" s="52"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D546" s="52"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D547" s="52"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D548" s="52"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D549" s="52"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D550" s="52"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D551" s="52"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D552" s="52"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D553" s="52"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D554" s="52"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D555" s="52"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D556" s="52"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D557" s="52"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D558" s="52"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D559" s="52"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D560" s="52"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D561" s="52"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D562" s="52"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D563" s="52"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D564" s="52"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D565" s="52"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D566" s="52"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D567" s="52"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D568" s="52"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D569" s="52"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D570" s="52"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D571" s="52"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D572" s="52"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D573" s="52"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D574" s="52"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D575" s="52"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D576" s="52"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D577" s="52"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D578" s="52"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D579" s="52"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D580" s="52"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D581" s="52"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D582" s="52"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D583" s="52"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D584" s="52"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D585" s="52"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D586" s="52"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D587" s="52"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D588" s="52"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D589" s="52"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D590" s="52"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D591" s="52"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D592" s="52"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D593" s="52"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D594" s="52"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D595" s="52"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D596" s="52"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D597" s="52"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D598" s="52"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D599" s="52"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D600" s="52"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D601" s="52"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D602" s="52"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D603" s="52"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D604" s="52"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D605" s="52"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D606" s="52"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D607" s="52"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D608" s="52"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D609" s="52"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D610" s="52"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D611" s="52"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D612" s="52"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D613" s="52"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D614" s="52"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D615" s="52"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D616" s="52"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D617" s="52"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D618" s="52"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D619" s="52"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D620" s="52"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D621" s="52"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D622" s="52"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D623" s="52"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D624" s="52"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D625" s="52"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D626" s="52"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D627" s="52"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D628" s="52"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D629" s="52"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D630" s="52"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D631" s="52"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D632" s="52"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D633" s="52"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D634" s="52"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D635" s="52"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D636" s="52"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D637" s="52"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D638" s="52"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D639" s="52"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D640" s="52"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D641" s="52"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D642" s="52"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D643" s="52"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D644" s="52"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D645" s="52"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D646" s="52"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D647" s="52"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D648" s="52"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D649" s="52"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D650" s="52"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D651" s="52"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D652" s="52"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D653" s="52"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D654" s="52"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D655" s="52"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D656" s="52"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D657" s="52"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D658" s="52"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D659" s="52"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D660" s="52"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D661" s="52"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D662" s="52"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D663" s="52"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D664" s="52"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D665" s="52"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D666" s="52"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D667" s="52"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D668" s="52"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D669" s="52"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D670" s="52"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D671" s="52"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D672" s="52"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D673" s="52"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D674" s="52"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D675" s="52"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D676" s="52"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D677" s="52"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D678" s="52"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D679" s="52"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D680" s="52"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D681" s="52"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D682" s="52"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D683" s="52"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D684" s="52"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D685" s="52"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D686" s="52"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D687" s="52"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D688" s="52"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D689" s="52"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D690" s="52"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D691" s="52"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D692" s="52"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D693" s="52"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D694" s="52"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D695" s="52"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D696" s="52"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D697" s="52"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D698" s="52"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D699" s="52"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D700" s="52"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D701" s="52"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D702" s="52"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D703" s="52"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D704" s="52"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D705" s="52"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D706" s="52"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D707" s="52"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D708" s="52"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D709" s="52"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D710" s="52"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D711" s="52"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D712" s="52"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D713" s="52"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D714" s="52"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D715" s="52"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D716" s="52"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D717" s="52"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D718" s="52"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D719" s="52"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D720" s="52"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D721" s="52"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D722" s="52"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D723" s="52"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D724" s="52"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D725" s="52"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D726" s="52"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D727" s="52"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D728" s="52"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D729" s="52"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D730" s="52"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D731" s="52"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D732" s="52"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D733" s="52"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D734" s="52"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D735" s="52"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D736" s="52"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D737" s="52"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D738" s="52"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D739" s="52"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D740" s="52"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D741" s="52"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D742" s="52"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D743" s="52"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D744" s="52"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D745" s="52"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D746" s="52"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D747" s="52"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D748" s="52"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D749" s="52"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D750" s="52"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D751" s="52"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D752" s="52"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D753" s="52"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D754" s="52"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D755" s="52"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D756" s="52"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D757" s="52"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D758" s="52"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D759" s="52"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D760" s="52"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D761" s="52"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D762" s="52"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D763" s="52"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D764" s="52"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D765" s="52"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D766" s="52"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D767" s="52"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D768" s="52"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D769" s="52"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D770" s="52"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D771" s="52"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D772" s="52"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D773" s="52"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D774" s="52"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D775" s="52"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D776" s="52"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D777" s="52"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D778" s="52"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D779" s="52"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D780" s="52"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D781" s="52"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D782" s="52"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D783" s="52"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D784" s="52"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D785" s="52"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D786" s="52"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D787" s="52"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D788" s="52"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D789" s="52"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D790" s="52"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D791" s="52"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D792" s="52"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D793" s="52"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D794" s="52"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D795" s="52"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D796" s="52"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D797" s="52"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D798" s="52"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D799" s="52"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D800" s="52"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D801" s="52"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D802" s="52"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D803" s="52"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D804" s="52"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D805" s="52"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D806" s="52"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D807" s="52"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D808" s="52"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D809" s="52"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D810" s="52"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D811" s="52"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D812" s="52"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D813" s="52"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D814" s="52"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D815" s="52"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D816" s="52"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D817" s="52"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D818" s="52"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D819" s="52"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D820" s="52"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D821" s="52"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D822" s="52"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D823" s="52"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D824" s="52"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D825" s="52"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D826" s="52"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D827" s="52"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D828" s="52"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D829" s="52"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D830" s="52"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D831" s="52"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D832" s="52"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D833" s="52"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D834" s="52"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D835" s="52"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D836" s="52"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D837" s="52"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D838" s="52"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D839" s="52"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D840" s="52"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D841" s="52"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D842" s="52"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D843" s="52"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D844" s="52"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D845" s="52"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D846" s="52"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D847" s="52"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D848" s="52"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D849" s="52"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D850" s="52"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D851" s="52"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D852" s="52"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D853" s="52"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D854" s="52"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D855" s="52"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D856" s="52"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D857" s="52"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D858" s="52"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D859" s="52"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D860" s="52"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D861" s="52"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D862" s="52"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D863" s="52"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D864" s="52"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D865" s="52"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D866" s="52"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D867" s="52"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D868" s="52"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D869" s="52"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D870" s="52"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D871" s="52"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D872" s="52"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D873" s="52"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D874" s="52"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D875" s="52"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D876" s="52"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D877" s="52"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D878" s="52"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D879" s="52"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D880" s="52"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D881" s="52"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D882" s="52"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D883" s="52"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D884" s="52"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D885" s="52"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D886" s="52"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D887" s="52"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D888" s="52"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D889" s="52"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D890" s="52"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D891" s="52"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D892" s="52"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D893" s="52"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D894" s="52"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D895" s="52"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D896" s="52"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D897" s="52"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D898" s="52"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D899" s="52"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D900" s="52"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D901" s="52"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D902" s="52"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D903" s="52"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D904" s="52"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D905" s="52"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D906" s="52"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D907" s="52"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D908" s="52"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D909" s="52"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D910" s="52"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D911" s="52"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D912" s="52"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D913" s="52"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D914" s="52"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D915" s="52"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D916" s="52"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D917" s="52"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D918" s="52"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D919" s="52"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D920" s="52"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D921" s="52"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D922" s="52"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D923" s="52"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D924" s="52"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D925" s="52"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D926" s="52"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D927" s="52"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D928" s="52"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D929" s="52"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D930" s="52"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D931" s="52"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D932" s="52"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D933" s="52"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D934" s="52"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D935" s="52"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D936" s="52"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D937" s="52"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D938" s="52"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D939" s="52"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D940" s="52"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D941" s="52"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D942" s="52"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D943" s="52"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D944" s="52"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D945" s="52"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D946" s="52"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D947" s="52"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D948" s="52"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D949" s="52"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D950" s="52"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D951" s="52"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D952" s="52"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D953" s="52"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D954" s="52"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D955" s="52"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D956" s="52"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D957" s="52"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D958" s="52"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D959" s="52"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D960" s="52"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D961" s="52"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D962" s="52"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D963" s="52"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D964" s="52"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D965" s="52"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D966" s="52"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D967" s="52"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D968" s="52"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D969" s="52"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D970" s="52"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D971" s="52"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D972" s="52"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D973" s="52"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D974" s="52"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D975" s="52"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D976" s="52"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D977" s="52"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D978" s="52"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D979" s="52"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D980" s="52"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D981" s="52"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D982" s="52"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D983" s="52"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D984" s="52"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D985" s="52"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D986" s="52"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D987" s="52"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D988" s="52"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D989" s="52"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D990" s="52"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D991" s="52"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D992" s="52"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D993" s="52"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D994" s="52"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -39904,7 +42028,7 @@
   </sheetPr>
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -39928,7 +42052,7 @@
         <v>1341</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1618</v>
+        <v>1640</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -39957,13 +42081,13 @@
       <c r="B2" s="41" t="s">
         <v>1165</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="13"/>
       <c r="I2" s="13" t="s">
         <v>944</v>
       </c>
@@ -39983,15 +42107,15 @@
         <v>98</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C3" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="13"/>
       <c r="I3" s="42" t="s">
         <v>947</v>
       </c>
@@ -40008,18 +42132,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C4" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="13"/>
       <c r="I4" s="42" t="s">
         <v>950</v>
       </c>
@@ -40036,18 +42160,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C5" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="13"/>
       <c r="I5" s="43" t="s">
         <v>952</v>
       </c>
@@ -40064,18 +42188,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C6" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="13"/>
       <c r="I6" s="44" t="s">
         <v>954</v>
       </c>
@@ -40092,18 +42216,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C7" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="13"/>
       <c r="I7" s="13" t="s">
         <v>957</v>
       </c>
@@ -40120,18 +42244,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C8" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="13"/>
       <c r="I8" s="44" t="s">
         <v>959</v>
       </c>
@@ -40148,18 +42272,18 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C9" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="13"/>
       <c r="I9" s="13" t="s">
         <v>961</v>
       </c>
@@ -40176,18 +42300,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>1621</v>
+        <v>1643</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C10" s="52" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="13"/>
       <c r="I10" s="13" t="s">
         <v>964</v>
       </c>
@@ -40204,18 +42328,18 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C11" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="13"/>
       <c r="I11" s="43" t="s">
         <v>966</v>
       </c>
@@ -40235,15 +42359,15 @@
         <v>17</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C12" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="13"/>
       <c r="I12" s="43" t="s">
         <v>968</v>
       </c>
@@ -40263,15 +42387,15 @@
         <v>93</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C13" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="13"/>
       <c r="I13" s="13" t="s">
         <v>970</v>
       </c>
@@ -40288,18 +42412,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C14" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="13"/>
       <c r="I14" s="13" t="s">
         <v>973</v>
       </c>
@@ -40316,18 +42440,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C15" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="13"/>
       <c r="I15" s="13" t="s">
         <v>975</v>
       </c>
@@ -40344,18 +42468,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C16" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="13"/>
       <c r="I16" s="43" t="s">
         <v>977</v>
       </c>
@@ -40372,18 +42496,18 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C17" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="13"/>
       <c r="I17" s="42" t="s">
         <v>979</v>
       </c>
@@ -40400,18 +42524,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C18" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="13"/>
       <c r="I18" s="43" t="s">
         <v>981</v>
       </c>
@@ -40428,18 +42552,18 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C19" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="13"/>
       <c r="I19" s="13" t="s">
         <v>983</v>
       </c>
@@ -40456,18 +42580,18 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C20" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="13"/>
       <c r="I20" s="13" t="s">
         <v>985</v>
       </c>
@@ -40484,18 +42608,18 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C21" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="13"/>
       <c r="I21" s="43" t="s">
         <v>988</v>
       </c>
@@ -40512,18 +42636,18 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C22" s="52" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>991</v>
       </c>
@@ -40540,18 +42664,18 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C23" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="13"/>
       <c r="I23" s="42" t="s">
         <v>994</v>
       </c>
@@ -40568,18 +42692,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C24" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="13"/>
       <c r="I24" s="42" t="s">
         <v>996</v>
       </c>
@@ -40596,18 +42720,18 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="41" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C25" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="13"/>
       <c r="I25" s="44" t="s">
         <v>998</v>
       </c>
@@ -40624,18 +42748,18 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C26" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="13"/>
       <c r="I26" s="42" t="s">
         <v>1000</v>
       </c>
@@ -40652,18 +42776,18 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="41" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C27" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="13"/>
       <c r="I27" s="42" t="s">
         <v>1002</v>
       </c>
@@ -40680,18 +42804,18 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C28" s="52" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="13"/>
       <c r="I28" s="42" t="s">
         <v>1004</v>
       </c>
@@ -40711,15 +42835,15 @@
         <v>111</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C29" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="13"/>
       <c r="I29" s="44" t="s">
         <v>1006</v>
       </c>
@@ -40739,15 +42863,15 @@
         <v>31</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C30" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="13"/>
       <c r="I30" s="43" t="s">
         <v>1009</v>
       </c>
@@ -40764,18 +42888,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>1625</v>
+        <v>1647</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>1069</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="53"/>
+      <c r="E31" s="13"/>
       <c r="I31" s="44" t="s">
         <v>1011</v>
       </c>
@@ -40792,18 +42916,18 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C32" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="53"/>
+      <c r="E32" s="13"/>
       <c r="I32" s="42" t="s">
         <v>1014</v>
       </c>
@@ -40820,18 +42944,18 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C33" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="13"/>
       <c r="I33" s="42" t="s">
         <v>1016</v>
       </c>
@@ -40848,18 +42972,18 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C34" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="13"/>
       <c r="I34" s="44" t="s">
         <v>1018</v>
       </c>
@@ -40876,18 +43000,18 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C35" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="53"/>
+      <c r="E35" s="13"/>
       <c r="I35" s="13" t="s">
         <v>1020</v>
       </c>
@@ -40904,18 +43028,18 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="41" t="s">
-        <v>1445</v>
+        <v>1455</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C36" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C36" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="13"/>
       <c r="I36" s="43" t="s">
         <v>1022</v>
       </c>
@@ -40932,18 +43056,18 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="s">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C37" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="53"/>
+      <c r="E37" s="13"/>
       <c r="I37" s="13" t="s">
         <v>1024</v>
       </c>
@@ -40960,19 +43084,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C38" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>1627</v>
+      <c r="D38" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>1649</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -40980,18 +43104,18 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="41" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C39" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="53"/>
+      <c r="E39" s="13"/>
       <c r="I39" s="13" t="s">
         <v>1026</v>
       </c>
@@ -41008,18 +43132,18 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D40" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="53"/>
+      <c r="E40" s="13"/>
       <c r="I40" s="13" t="s">
         <v>1028</v>
       </c>
@@ -41036,18 +43160,18 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C41" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="53"/>
+      <c r="E41" s="13"/>
       <c r="I41" s="42" t="s">
         <v>1030</v>
       </c>
@@ -41063,19 +43187,19 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D42" s="52" t="s">
+      <c r="A42" s="53" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="13"/>
       <c r="I42" s="43" t="s">
         <v>1032</v>
       </c>
@@ -41091,19 +43215,19 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D43" s="52" t="s">
+      <c r="A43" s="53" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="13"/>
       <c r="I43" s="44" t="s">
         <v>1034</v>
       </c>
@@ -41120,18 +43244,18 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>1631</v>
+        <v>1653</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C44" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="53"/>
+      <c r="E44" s="13"/>
       <c r="I44" s="43" t="s">
         <v>1037</v>
       </c>
@@ -41148,18 +43272,18 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>1632</v>
+        <v>1654</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>1228</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="53"/>
+      <c r="E45" s="13"/>
       <c r="I45" s="44" t="s">
         <v>1040</v>
       </c>
@@ -41179,15 +43303,15 @@
         <v>79</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D46" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D46" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="53"/>
+      <c r="E46" s="13"/>
       <c r="I46" s="44" t="s">
         <v>1042</v>
       </c>
@@ -41207,15 +43331,15 @@
         <v>82</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D47" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="53"/>
+      <c r="E47" s="13"/>
       <c r="I47" s="42" t="s">
         <v>1045</v>
       </c>
@@ -41235,15 +43359,15 @@
         <v>76</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C48" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="53"/>
+      <c r="E48" s="13"/>
       <c r="I48" s="42" t="s">
         <v>1047</v>
       </c>
@@ -41263,15 +43387,15 @@
         <v>130</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C49" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="53"/>
+      <c r="E49" s="13"/>
       <c r="I49" s="13" t="s">
         <v>1049</v>
       </c>
@@ -41288,18 +43412,18 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>1478</v>
+        <v>1489</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C50" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="53"/>
+      <c r="E50" s="13"/>
       <c r="I50" s="42" t="s">
         <v>1051</v>
       </c>
@@ -41319,15 +43443,15 @@
         <v>122</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C51" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="53"/>
+      <c r="E51" s="13"/>
       <c r="I51" s="43" t="s">
         <v>1053</v>
       </c>
@@ -41344,18 +43468,18 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C52" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="53"/>
+      <c r="E52" s="13"/>
       <c r="I52" s="13" t="s">
         <v>1055</v>
       </c>
@@ -41372,18 +43496,18 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C53" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="53"/>
+      <c r="E53" s="13"/>
       <c r="I53" s="13" t="s">
         <v>1057</v>
       </c>
@@ -41403,15 +43527,15 @@
         <v>124</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C54" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="53"/>
+      <c r="E54" s="13"/>
       <c r="I54" s="44" t="s">
         <v>1060</v>
       </c>
@@ -41428,18 +43552,18 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>1496</v>
+        <v>1509</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C55" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="53"/>
+      <c r="E55" s="13"/>
       <c r="I55" s="42" t="s">
         <v>1063</v>
       </c>
@@ -41456,18 +43580,18 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C56" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="53"/>
+      <c r="E56" s="13"/>
       <c r="I56" s="42" t="s">
         <v>1065</v>
       </c>
@@ -41484,18 +43608,18 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>1504</v>
+        <v>1517</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C57" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="53"/>
+      <c r="E57" s="13"/>
       <c r="I57" s="13" t="s">
         <v>1067</v>
       </c>
@@ -41512,18 +43636,18 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C58" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="53"/>
+      <c r="E58" s="13"/>
       <c r="I58" s="13" t="s">
         <v>1069</v>
       </c>
@@ -41540,18 +43664,18 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C59" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="53"/>
+      <c r="E59" s="13"/>
       <c r="I59" s="42" t="s">
         <v>1072</v>
       </c>
@@ -41568,18 +43692,18 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="41" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C60" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="53"/>
+      <c r="E60" s="13"/>
       <c r="I60" s="13" t="s">
         <v>1075</v>
       </c>
@@ -41596,18 +43720,18 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C61" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="53"/>
+      <c r="E61" s="13"/>
       <c r="I61" s="43" t="s">
         <v>1077</v>
       </c>
@@ -41627,15 +43751,15 @@
         <v>60</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C62" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="34" t="s">
         <v>63</v>
       </c>
       <c r="I62" s="44" t="s">
@@ -41657,15 +43781,15 @@
         <v>53</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C63" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="53"/>
+      <c r="E63" s="13"/>
       <c r="I63" s="42" t="s">
         <v>1082</v>
       </c>
@@ -41682,18 +43806,18 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C64" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="53"/>
+      <c r="E64" s="13"/>
       <c r="I64" s="43" t="s">
         <v>1084</v>
       </c>
@@ -41710,18 +43834,18 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D65" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D65" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="53"/>
+      <c r="E65" s="13"/>
       <c r="I65" s="43" t="s">
         <v>1086</v>
       </c>
@@ -41741,15 +43865,15 @@
         <v>88</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C66" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C66" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="53"/>
+      <c r="E66" s="13"/>
       <c r="I66" s="43" t="s">
         <v>1088</v>
       </c>
@@ -41766,18 +43890,18 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="55" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C67" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C67" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="53"/>
+      <c r="E67" s="13"/>
       <c r="I67" s="44" t="s">
         <v>1090</v>
       </c>
@@ -41794,18 +43918,18 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>1543</v>
+        <v>1558</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C68" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="53"/>
+      <c r="E68" s="13"/>
       <c r="I68" s="13" t="s">
         <v>1092</v>
       </c>
@@ -41822,18 +43946,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C69" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C69" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="53"/>
+      <c r="E69" s="13"/>
       <c r="I69" s="13" t="s">
         <v>1094</v>
       </c>
@@ -41850,18 +43974,18 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C70" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C70" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="53"/>
+      <c r="E70" s="13"/>
       <c r="I70" s="44" t="s">
         <v>1096</v>
       </c>
@@ -41877,19 +44001,19 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C71" s="52" t="s">
+      <c r="A71" s="53" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C71" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="53"/>
+      <c r="E71" s="13"/>
       <c r="I71" s="44" t="s">
         <v>1098</v>
       </c>
@@ -41905,19 +44029,19 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C72" s="52" t="s">
+      <c r="A72" s="53" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C72" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="53"/>
+      <c r="E72" s="13"/>
       <c r="I72" s="43" t="s">
         <v>1100</v>
       </c>
@@ -41934,18 +44058,18 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C73" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="53"/>
+      <c r="E73" s="13"/>
       <c r="I73" s="43" t="s">
         <v>1102</v>
       </c>
@@ -41962,18 +44086,18 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="41" t="s">
-        <v>1559</v>
+        <v>1575</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C74" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="53"/>
+      <c r="E74" s="13"/>
       <c r="I74" s="13" t="s">
         <v>1104</v>
       </c>
@@ -41990,18 +44114,18 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C75" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="53"/>
+      <c r="E75" s="13"/>
       <c r="I75" s="44" t="s">
         <v>1107</v>
       </c>
@@ -42018,18 +44142,18 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C76" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="53"/>
+      <c r="E76" s="13"/>
       <c r="I76" s="13" t="s">
         <v>1110</v>
       </c>
@@ -42046,18 +44170,18 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>1568</v>
+        <v>1584</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C77" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="53"/>
+      <c r="E77" s="13"/>
       <c r="I77" s="42" t="s">
         <v>1112</v>
       </c>
@@ -42074,18 +44198,18 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>1572</v>
+        <v>1589</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C78" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="53"/>
+      <c r="E78" s="13"/>
       <c r="I78" s="43" t="s">
         <v>1114</v>
       </c>
@@ -42102,18 +44226,18 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>1576</v>
+        <v>1594</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C79" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="53"/>
+      <c r="E79" s="13"/>
       <c r="I79" s="44" t="s">
         <v>1116</v>
       </c>
@@ -42130,18 +44254,18 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="41" t="s">
-        <v>1580</v>
+        <v>1598</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C80" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="53"/>
+      <c r="E80" s="13"/>
       <c r="I80" s="43" t="s">
         <v>1119</v>
       </c>
@@ -42158,18 +44282,18 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="41" t="s">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C81" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="53"/>
+      <c r="E81" s="13"/>
       <c r="I81" s="13" t="s">
         <v>1121</v>
       </c>
@@ -42186,18 +44310,18 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="41" t="s">
-        <v>1588</v>
+        <v>1606</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C82" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C82" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D82" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="13"/>
       <c r="I82" s="42" t="s">
         <v>1123</v>
       </c>
@@ -42214,18 +44338,18 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="41" t="s">
-        <v>1589</v>
+        <v>1607</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C83" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C83" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="53"/>
+      <c r="E83" s="13"/>
       <c r="I83" s="43" t="s">
         <v>1126</v>
       </c>
@@ -42242,18 +44366,18 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="41" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C84" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="53"/>
+      <c r="E84" s="13"/>
       <c r="I84" s="44" t="s">
         <v>1128</v>
       </c>
@@ -42270,18 +44394,18 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="41" t="s">
-        <v>1594</v>
+        <v>1612</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C85" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C85" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="53"/>
+      <c r="E85" s="13"/>
       <c r="I85" s="13" t="s">
         <v>1130</v>
       </c>
@@ -42298,18 +44422,18 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>1598</v>
+        <v>1617</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C86" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C86" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="D86" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="53"/>
+      <c r="E86" s="13"/>
       <c r="I86" s="43" t="s">
         <v>1132</v>
       </c>
@@ -42326,18 +44450,18 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="41" t="s">
-        <v>1602</v>
+        <v>1621</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C87" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C87" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="52" t="s">
+      <c r="D87" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="53"/>
+      <c r="E87" s="13"/>
       <c r="I87" s="13" t="s">
         <v>1134</v>
       </c>
@@ -42354,18 +44478,18 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="41" t="s">
-        <v>1604</v>
+        <v>1623</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C88" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C88" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="52" t="s">
+      <c r="D88" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="53"/>
+      <c r="E88" s="13"/>
       <c r="I88" s="42" t="s">
         <v>1136</v>
       </c>
@@ -42382,18 +44506,18 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="41" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C89" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C89" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E89" s="53"/>
+      <c r="E89" s="13"/>
       <c r="I89" s="44" t="s">
         <v>1138</v>
       </c>
@@ -42410,18 +44534,18 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="41" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C90" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C90" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="53"/>
+      <c r="E90" s="13"/>
       <c r="I90" s="13" t="s">
         <v>1140</v>
       </c>
@@ -42438,18 +44562,18 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="41" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C91" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C91" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E91" s="53"/>
+      <c r="E91" s="13"/>
       <c r="I91" s="44" t="s">
         <v>1143</v>
       </c>
@@ -42471,13 +44595,13 @@
       <c r="B92" s="41" t="s">
         <v>1223</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E92" s="53"/>
+      <c r="E92" s="13"/>
       <c r="I92" s="42" t="s">
         <v>1145</v>
       </c>
@@ -43460,7 +45584,7 @@
         <v>1287</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>1638</v>
+        <v>1660</v>
       </c>
       <c r="L157" s="41" t="str">
         <f aca="false">CONCATENATE(I157,",")</f>

--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -10805,9 +10805,9 @@
   <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="J3" activeCellId="2" sqref="D59 D61 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14646,7 +14646,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="2" sqref="D59 D61 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15365,7 +15365,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="2" sqref="D59 D61 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20145,7 +20145,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D59 D61 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21206,11 +21206,11 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="T6" activeCellId="2" sqref="D59 D61 T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31645,7 +31645,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="2" sqref="D59 D61 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33473,7 +33473,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="D74" activeCellId="2" sqref="D59 D61 D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36352,7 +36352,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D59 D61 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37392,7 +37392,7 @@
   <dimension ref="A1:AC994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D61" activeCellId="1" sqref="D59 D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42029,7 +42029,7 @@
   <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="2" sqref="D59 D61 D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
+++ b/data/templates/EXTERNAL__Trademark_Tool_Data_LCG_2_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Trademark Config" sheetId="1" state="visible" r:id="rId3"/>
@@ -9945,37 +9945,37 @@
     <t xml:space="preserve">US RMD</t>
   </si>
   <si>
-    <t xml:space="preserve">Please Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor the Craft. Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enjoy Diplomatico with Moderation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enjoy 100% Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please Cocktail Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladies and Gentlemen Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please Enjoy Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Freely. Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Colorfully. Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crafted Carefully. Drink Responsibly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trailblazers Sip Responsibly.</t>
+    <t xml:space="preserve">Please Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honor the Craft. Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy Diplomático with Moderation. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy 100% Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Cocktail Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladies and Gentlemen Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Enjoy Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Freely. Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Colorfully. Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafted Carefully. Drink Responsibly. responsibility.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailblazers Sip Responsibly. responsibility.org</t>
   </si>
 </sst>
 </file>
@@ -10255,7 +10255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10460,14 +10460,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10478,6 +10470,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -10807,7 +10803,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J3" activeCellId="2" sqref="D59 D61 J3"/>
+      <selection pane="bottomLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14645,13 +14641,14 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="2" sqref="D59 D61 E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14666,7 +14663,7 @@
       <c r="A2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14674,7 +14671,7 @@
       <c r="A3" s="34" t="s">
         <v>1349</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14682,7 +14679,7 @@
       <c r="A4" s="34" t="s">
         <v>1354</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14690,7 +14687,7 @@
       <c r="A5" s="34" t="s">
         <v>1358</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14698,7 +14695,7 @@
       <c r="A6" s="34" t="s">
         <v>1362</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14706,7 +14703,7 @@
       <c r="A7" s="34" t="s">
         <v>1363</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14714,7 +14711,7 @@
       <c r="A8" s="34" t="s">
         <v>1364</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14722,7 +14719,7 @@
       <c r="A9" s="34" t="s">
         <v>1366</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14730,7 +14727,7 @@
       <c r="A10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14738,7 +14735,7 @@
       <c r="A11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14746,7 +14743,7 @@
       <c r="A12" s="34" t="s">
         <v>1371</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="54" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -14754,7 +14751,7 @@
       <c r="A13" s="34" t="s">
         <v>1376</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="54" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -14762,7 +14759,7 @@
       <c r="A14" s="34" t="s">
         <v>1380</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="54" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -14770,7 +14767,7 @@
       <c r="A15" s="34" t="s">
         <v>1384</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14778,7 +14775,7 @@
       <c r="A16" s="34" t="s">
         <v>1389</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14786,7 +14783,7 @@
       <c r="A17" s="34" t="s">
         <v>1390</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14794,7 +14791,7 @@
       <c r="A18" s="34" t="s">
         <v>1394</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14802,7 +14799,7 @@
       <c r="A19" s="34" t="s">
         <v>1397</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14810,7 +14807,7 @@
       <c r="A20" s="34" t="s">
         <v>1400</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14818,7 +14815,7 @@
       <c r="A21" s="34" t="s">
         <v>1404</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -14826,23 +14823,23 @@
       <c r="A22" s="34" t="s">
         <v>1408</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="54" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
         <v>1411</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="54" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
         <v>1416</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="54" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -14850,7 +14847,7 @@
       <c r="A25" s="34" t="s">
         <v>1421</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="54" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -14858,7 +14855,7 @@
       <c r="A26" s="34" t="s">
         <v>1425</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="54" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -14866,15 +14863,15 @@
       <c r="A27" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="54" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="54" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -14882,7 +14879,7 @@
       <c r="A29" s="34" t="s">
         <v>1439</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14890,7 +14887,7 @@
       <c r="A30" s="34" t="s">
         <v>1443</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14898,7 +14895,7 @@
       <c r="A31" s="34" t="s">
         <v>1447</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14906,7 +14903,7 @@
       <c r="A32" s="34" t="s">
         <v>1451</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14914,7 +14911,7 @@
       <c r="A33" s="34" t="s">
         <v>1455</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14922,7 +14919,7 @@
       <c r="A34" s="34" t="s">
         <v>1459</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="54" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -14930,15 +14927,15 @@
       <c r="A35" s="34" t="s">
         <v>1462</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -14946,15 +14943,15 @@
       <c r="A37" s="34" t="s">
         <v>1471</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
         <v>1472</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -14962,7 +14959,7 @@
       <c r="A39" s="34" t="s">
         <v>1473</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -14970,23 +14967,23 @@
       <c r="A40" s="34" t="s">
         <v>1477</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="52" t="s">
         <v>1653</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="52" t="s">
         <v>1654</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -14994,7 +14991,7 @@
       <c r="A43" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15002,7 +14999,7 @@
       <c r="A44" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15010,23 +15007,23 @@
       <c r="A45" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
         <v>1489</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15034,7 +15031,7 @@
       <c r="A48" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15042,7 +15039,7 @@
       <c r="A49" s="34" t="s">
         <v>1497</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15050,7 +15047,7 @@
       <c r="A50" s="34" t="s">
         <v>1501</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15058,7 +15055,7 @@
       <c r="A51" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15066,7 +15063,7 @@
       <c r="A52" s="34" t="s">
         <v>1509</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15074,39 +15071,39 @@
       <c r="A53" s="34" t="s">
         <v>1513</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
         <v>1517</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
         <v>1521</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="34" t="s">
         <v>1525</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="34" t="s">
         <v>1529</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15114,7 +15111,7 @@
       <c r="A58" s="34" t="s">
         <v>1532</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15122,7 +15119,7 @@
       <c r="A59" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15130,7 +15127,7 @@
       <c r="A60" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15138,7 +15135,7 @@
       <c r="A61" s="34" t="s">
         <v>1542</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -15146,7 +15143,7 @@
       <c r="A62" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="54" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -15154,47 +15151,47 @@
       <c r="A63" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="54" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="34" t="s">
         <v>1558</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34" t="s">
         <v>1563</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="34" t="s">
         <v>1567</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="34" t="s">
         <v>1571</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -15202,7 +15199,7 @@
       <c r="A69" s="34" t="s">
         <v>1575</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -15210,7 +15207,7 @@
       <c r="A70" s="34" t="s">
         <v>1576</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -15218,15 +15215,15 @@
       <c r="A71" s="34" t="s">
         <v>1580</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="34" t="s">
         <v>1584</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -15234,7 +15231,7 @@
       <c r="A73" s="34" t="s">
         <v>1589</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="54" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -15242,39 +15239,39 @@
       <c r="A74" s="34" t="s">
         <v>1594</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="34" t="s">
         <v>1598</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34" t="s">
         <v>1602</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="34" t="s">
         <v>1606</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="34" t="s">
         <v>1607</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -15282,67 +15279,72 @@
       <c r="A79" s="34" t="s">
         <v>1611</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="54" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
         <v>1612</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
         <v>1621</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
         <v>1623</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="34" t="s">
         <v>1628</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="34" t="s">
         <v>1633</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="34" t="s">
         <v>1635</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="54" t="s">
         <v>1671</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" display="responsibility.org"/>
+    <hyperlink ref="B41" r:id="rId2" display="responsibility.org"/>
+    <hyperlink ref="B44" r:id="rId3" display="responsibility.org"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15365,7 +15367,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="2" sqref="D59 D61 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20145,7 +20147,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D59 D61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21210,7 +21212,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" activeCellId="2" sqref="D59 D61 T6"/>
+      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31645,7 +31647,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="2" sqref="D59 D61 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33473,7 +33475,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D74" activeCellId="2" sqref="D59 D61 D74"/>
+      <selection pane="bottomLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36352,7 +36354,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D59 D61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37391,8 +37393,8 @@
   </sheetPr>
   <dimension ref="A1:AC994"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="1" sqref="D59 D61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37417,7 +37419,7 @@
       <c r="C1" s="50" t="s">
         <v>1343</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="34" t="s">
         <v>1344</v>
       </c>
       <c r="E1" s="50" t="s">
@@ -37459,7 +37461,7 @@
       <c r="B2" s="41" t="s">
         <v>1348</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="41" t="s">
         <v>1348</v>
       </c>
@@ -37478,7 +37480,7 @@
         <v>1348</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E3" s="41" t="s">
@@ -37499,7 +37501,7 @@
         <v>1348</v>
       </c>
       <c r="C4" s="41"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E4" s="41" t="s">
@@ -37520,7 +37522,7 @@
         <v>1348</v>
       </c>
       <c r="C5" s="41"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E5" s="41" t="s">
@@ -37541,7 +37543,7 @@
         <v>1348</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -37562,7 +37564,7 @@
         <v>1348</v>
       </c>
       <c r="C7" s="41"/>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E7" s="41" t="s">
@@ -37583,7 +37585,7 @@
         <v>1348</v>
       </c>
       <c r="C8" s="41"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E8" s="41" t="s">
@@ -37603,7 +37605,7 @@
       <c r="B9" s="41" t="s">
         <v>1348</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="41" t="s">
         <v>1348</v>
       </c>
@@ -37622,7 +37624,7 @@
         <v>1348</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="34" t="s">
         <v>1367</v>
       </c>
       <c r="E10" s="41" t="s">
@@ -37643,7 +37645,7 @@
         <v>1348</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="52"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="41" t="s">
         <v>1348</v>
       </c>
@@ -37662,7 +37664,7 @@
         <v>1348</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E12" s="41" t="s">
@@ -37683,7 +37685,7 @@
         <v>1348</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E13" s="41" t="s">
@@ -37704,7 +37706,7 @@
         <v>1348</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E14" s="41" t="s">
@@ -37725,7 +37727,7 @@
         <v>1348</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E15" s="41" t="s">
@@ -37746,7 +37748,7 @@
         <v>1348</v>
       </c>
       <c r="C16" s="41"/>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E16" s="41" t="s">
@@ -37767,7 +37769,7 @@
         <v>1348</v>
       </c>
       <c r="C17" s="41"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E17" s="41" t="s">
@@ -37788,7 +37790,7 @@
         <v>1348</v>
       </c>
       <c r="C18" s="41"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E18" s="41" t="s">
@@ -37809,7 +37811,7 @@
         <v>1348</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E19" s="41" t="s">
@@ -37830,7 +37832,7 @@
         <v>1348</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E20" s="41" t="s">
@@ -37851,7 +37853,7 @@
         <v>1348</v>
       </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E21" s="41" t="s">
@@ -37872,7 +37874,7 @@
         <v>1348</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="34" t="s">
         <v>1385</v>
       </c>
       <c r="E22" s="41" t="s">
@@ -37893,7 +37895,7 @@
         <v>1348</v>
       </c>
       <c r="C23" s="41"/>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="34" t="s">
         <v>1412</v>
       </c>
       <c r="E23" s="41" t="s">
@@ -37914,7 +37916,7 @@
         <v>1348</v>
       </c>
       <c r="C24" s="41"/>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="34" t="s">
         <v>1417</v>
       </c>
       <c r="E24" s="41" t="s">
@@ -37935,7 +37937,7 @@
         <v>1348</v>
       </c>
       <c r="C25" s="41"/>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="34" t="s">
         <v>1417</v>
       </c>
       <c r="E25" s="41" t="s">
@@ -37949,23 +37951,23 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="51" t="s">
         <v>1425</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>1348</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="34" t="s">
         <v>1426</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="51" t="s">
         <v>1427</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="51" t="s">
         <v>1428</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="51" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -37977,7 +37979,7 @@
         <v>1348</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="34" t="s">
         <v>1430</v>
       </c>
       <c r="E27" s="41" t="s">
@@ -38000,7 +38002,7 @@
       <c r="C28" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E28" s="41" t="s">
@@ -38021,7 +38023,7 @@
         <v>1348</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="34" t="s">
         <v>1430</v>
       </c>
       <c r="E29" s="41" t="s">
@@ -38042,7 +38044,7 @@
         <v>1348</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E30" s="41" t="s">
@@ -38063,7 +38065,7 @@
         <v>1348</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E31" s="41" t="s">
@@ -38084,7 +38086,7 @@
         <v>1348</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E32" s="41" t="s">
@@ -38105,7 +38107,7 @@
         <v>1348</v>
       </c>
       <c r="C33" s="41"/>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E33" s="41" t="s">
@@ -38126,7 +38128,7 @@
         <v>1348</v>
       </c>
       <c r="C34" s="41"/>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="34" t="s">
         <v>1417</v>
       </c>
       <c r="E34" s="41" t="s">
@@ -38149,7 +38151,7 @@
       <c r="C35" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -38172,7 +38174,7 @@
       <c r="C36" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E36" s="41" t="s">
@@ -38195,7 +38197,7 @@
       <c r="C37" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="41" t="s">
         <v>1434</v>
       </c>
@@ -38216,7 +38218,7 @@
       <c r="C38" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D38" s="52"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="41" t="s">
         <v>1434</v>
       </c>
@@ -38237,7 +38239,7 @@
       <c r="C39" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E39" s="41" t="s">
@@ -38260,7 +38262,7 @@
       <c r="C40" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E40" s="41" t="s">
@@ -38283,7 +38285,7 @@
       <c r="C41" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E41" s="41" t="s">
@@ -38306,7 +38308,7 @@
       <c r="C42" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E42" s="41" t="s">
@@ -38329,7 +38331,7 @@
       <c r="C43" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E43" s="41" t="s">
@@ -38352,7 +38354,7 @@
       <c r="C44" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E44" s="41" t="s">
@@ -38375,7 +38377,7 @@
       <c r="C45" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E45" s="41" t="s">
@@ -38398,7 +38400,7 @@
       <c r="C46" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E46" s="41" t="s">
@@ -38421,7 +38423,7 @@
       <c r="C47" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="34" t="s">
         <v>1490</v>
       </c>
       <c r="E47" s="41" t="s">
@@ -38444,7 +38446,7 @@
       <c r="C48" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E48" s="41" t="s">
@@ -38467,7 +38469,7 @@
       <c r="C49" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E49" s="41" t="s">
@@ -38490,7 +38492,7 @@
       <c r="C50" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="34" t="s">
         <v>1490</v>
       </c>
       <c r="E50" s="41" t="s">
@@ -38513,7 +38515,7 @@
       <c r="C51" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="34" t="s">
         <v>1505</v>
       </c>
       <c r="E51" s="41" t="s">
@@ -38536,7 +38538,7 @@
       <c r="C52" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E52" s="41" t="s">
@@ -38559,7 +38561,7 @@
       <c r="C53" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="34" t="s">
         <v>1490</v>
       </c>
       <c r="E53" s="41" t="s">
@@ -38582,7 +38584,7 @@
       <c r="C54" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E54" s="41" t="s">
@@ -38605,7 +38607,7 @@
       <c r="C55" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="34" t="s">
         <v>1490</v>
       </c>
       <c r="E55" s="41" t="s">
@@ -38628,7 +38630,7 @@
       <c r="C56" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E56" s="41" t="s">
@@ -38651,7 +38653,7 @@
       <c r="C57" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E57" s="41" t="s">
@@ -38674,7 +38676,7 @@
       <c r="C58" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="34" t="s">
         <v>1533</v>
       </c>
       <c r="E58" s="41" t="s">
@@ -38697,7 +38699,7 @@
       <c r="C59" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E59" s="41" t="s">
@@ -38720,7 +38722,7 @@
       <c r="C60" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E60" s="41" t="s">
@@ -38743,7 +38745,7 @@
       <c r="C61" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="34" t="s">
         <v>1435</v>
       </c>
       <c r="E61" s="41" t="s">
@@ -38766,7 +38768,7 @@
       <c r="C62" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="34" t="s">
         <v>1412</v>
       </c>
       <c r="E62" s="41" t="s">
@@ -38789,7 +38791,7 @@
       <c r="C63" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="E63" s="41" t="s">
@@ -38810,7 +38812,7 @@
         <v>1348</v>
       </c>
       <c r="C64" s="41"/>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="34" t="s">
         <v>1554</v>
       </c>
       <c r="E64" s="41" t="s">
@@ -38831,7 +38833,7 @@
         <v>1348</v>
       </c>
       <c r="C65" s="41"/>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E65" s="41" t="s">
@@ -38852,7 +38854,7 @@
         <v>1348</v>
       </c>
       <c r="C66" s="41"/>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E66" s="41" t="s">
@@ -38873,7 +38875,7 @@
         <v>1348</v>
       </c>
       <c r="C67" s="41"/>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E67" s="41" t="s">
@@ -38894,7 +38896,7 @@
         <v>1348</v>
       </c>
       <c r="C68" s="41"/>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E68" s="41" t="s">
@@ -38915,7 +38917,7 @@
         <v>1348</v>
       </c>
       <c r="C69" s="41"/>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E69" s="41" t="s">
@@ -38936,7 +38938,7 @@
         <v>1348</v>
       </c>
       <c r="C70" s="41"/>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E70" s="41" t="s">
@@ -38957,7 +38959,7 @@
         <v>1348</v>
       </c>
       <c r="C71" s="41"/>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="34" t="s">
         <v>1559</v>
       </c>
       <c r="E71" s="41" t="s">
@@ -38978,7 +38980,7 @@
         <v>1348</v>
       </c>
       <c r="C72" s="41"/>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="34" t="s">
         <v>1585</v>
       </c>
       <c r="E72" s="41" t="s">
@@ -38999,7 +39001,7 @@
         <v>1348</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="34" t="s">
         <v>1590</v>
       </c>
       <c r="E73" s="41" t="s">
@@ -39020,7 +39022,7 @@
         <v>1348</v>
       </c>
       <c r="C74" s="41"/>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E74" s="41" t="s">
@@ -39041,7 +39043,7 @@
         <v>1348</v>
       </c>
       <c r="C75" s="41"/>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -39062,7 +39064,7 @@
         <v>1348</v>
       </c>
       <c r="C76" s="41"/>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E76" s="41" t="s">
@@ -39083,7 +39085,7 @@
         <v>1348</v>
       </c>
       <c r="C77" s="41"/>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E77" s="41" t="s">
@@ -39104,7 +39106,7 @@
         <v>1348</v>
       </c>
       <c r="C78" s="41"/>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E78" s="41" t="s">
@@ -39125,7 +39127,7 @@
         <v>1348</v>
       </c>
       <c r="C79" s="41"/>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="34" t="s">
         <v>1350</v>
       </c>
       <c r="E79" s="41" t="s">
@@ -39146,7 +39148,7 @@
         <v>1348</v>
       </c>
       <c r="C80" s="41"/>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="34" t="s">
         <v>1613</v>
       </c>
       <c r="E80" s="41" t="s">
@@ -39167,7 +39169,7 @@
         <v>1348</v>
       </c>
       <c r="C81" s="41"/>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E81" s="41" t="s">
@@ -39188,7 +39190,7 @@
         <v>1348</v>
       </c>
       <c r="C82" s="41"/>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E82" s="41" t="s">
@@ -39209,7 +39211,7 @@
         <v>1348</v>
       </c>
       <c r="C83" s="41"/>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="34" t="s">
         <v>1624</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -39230,7 +39232,7 @@
         <v>1348</v>
       </c>
       <c r="C84" s="41"/>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="34" t="s">
         <v>1629</v>
       </c>
       <c r="E84" s="41" t="s">
@@ -39251,7 +39253,7 @@
         <v>1348</v>
       </c>
       <c r="C85" s="41"/>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="E85" s="41" t="s">
@@ -39272,7 +39274,7 @@
         <v>1348</v>
       </c>
       <c r="C86" s="41"/>
-      <c r="D86" s="51" t="s">
+      <c r="D86" s="34" t="s">
         <v>1636</v>
       </c>
       <c r="E86" s="41" t="s">
@@ -39286,2728 +39288,2728 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D87" s="52"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D88" s="52"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D89" s="52"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D90" s="52"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D91" s="52"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D92" s="52"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D93" s="52"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D94" s="52"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D95" s="52"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D96" s="52"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D97" s="52"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D98" s="52"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D99" s="52"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D100" s="52"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D101" s="52"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D102" s="52"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D103" s="52"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D104" s="52"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D105" s="52"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D106" s="52"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D107" s="52"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D108" s="52"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D109" s="52"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D110" s="52"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D111" s="52"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D112" s="52"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D113" s="52"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D114" s="52"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D115" s="52"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D116" s="52"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D117" s="52"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D118" s="52"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D119" s="52"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D120" s="52"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D121" s="52"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D122" s="52"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D123" s="52"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D124" s="52"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D125" s="52"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D126" s="52"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D127" s="52"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D128" s="52"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D129" s="52"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D130" s="52"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D131" s="52"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D132" s="52"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D133" s="52"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D134" s="52"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D135" s="52"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D136" s="52"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D137" s="52"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D138" s="52"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D139" s="52"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D140" s="52"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D141" s="52"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D142" s="52"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D143" s="52"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D144" s="52"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D145" s="52"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D146" s="52"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D147" s="52"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D148" s="52"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D149" s="52"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D150" s="52"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D151" s="52"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D152" s="52"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D153" s="52"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D154" s="52"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D155" s="52"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D156" s="52"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D157" s="52"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D158" s="52"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D159" s="52"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D160" s="52"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D161" s="52"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D162" s="52"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D163" s="52"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D164" s="52"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D165" s="52"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D166" s="52"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D167" s="52"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D168" s="52"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D169" s="52"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D170" s="52"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D171" s="52"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D172" s="52"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D173" s="52"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D174" s="52"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D175" s="52"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D176" s="52"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D177" s="52"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D178" s="52"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D179" s="52"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D180" s="52"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D181" s="52"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D182" s="52"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D183" s="52"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D184" s="52"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D185" s="52"/>
+      <c r="D185" s="13"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D186" s="52"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D187" s="52"/>
+      <c r="D187" s="13"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D188" s="52"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D189" s="52"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D190" s="52"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D191" s="52"/>
+      <c r="D191" s="13"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D192" s="52"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D193" s="52"/>
+      <c r="D193" s="13"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D194" s="52"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D195" s="52"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D196" s="52"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D197" s="52"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D198" s="52"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D199" s="52"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D200" s="52"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D201" s="52"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D202" s="52"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D203" s="52"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D204" s="52"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D205" s="52"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D206" s="52"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D207" s="52"/>
+      <c r="D207" s="13"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D208" s="52"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D209" s="52"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D210" s="52"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D211" s="52"/>
+      <c r="D211" s="13"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D212" s="52"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D213" s="52"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D214" s="52"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D215" s="52"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D216" s="52"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D217" s="52"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D218" s="52"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D219" s="52"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D220" s="52"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D221" s="52"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D222" s="52"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D223" s="52"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D224" s="52"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D225" s="52"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D226" s="52"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D227" s="52"/>
+      <c r="D227" s="13"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D228" s="52"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D229" s="52"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D230" s="52"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D231" s="52"/>
+      <c r="D231" s="13"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D232" s="52"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D233" s="52"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D234" s="52"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D235" s="52"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D236" s="52"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D237" s="52"/>
+      <c r="D237" s="13"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D238" s="52"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D239" s="52"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D240" s="52"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D241" s="52"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D242" s="52"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D243" s="52"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D244" s="52"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D245" s="52"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D246" s="52"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D247" s="52"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D248" s="52"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D249" s="52"/>
+      <c r="D249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D250" s="52"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D251" s="52"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D252" s="52"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D253" s="52"/>
+      <c r="D253" s="13"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D254" s="52"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D255" s="52"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D256" s="52"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D257" s="52"/>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D258" s="52"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D259" s="52"/>
+      <c r="D259" s="13"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D260" s="52"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D261" s="52"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D262" s="52"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D263" s="52"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D264" s="52"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D265" s="52"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D266" s="52"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D267" s="52"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D268" s="52"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D269" s="52"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D270" s="52"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D271" s="52"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D272" s="52"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D273" s="52"/>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D274" s="52"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D275" s="52"/>
+      <c r="D275" s="13"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D276" s="52"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D277" s="52"/>
+      <c r="D277" s="13"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D278" s="52"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D279" s="52"/>
+      <c r="D279" s="13"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D280" s="52"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D281" s="52"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D282" s="52"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D283" s="52"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D284" s="52"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D285" s="52"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D286" s="52"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D287" s="52"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D288" s="52"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D289" s="52"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D290" s="52"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D291" s="52"/>
+      <c r="D291" s="13"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D292" s="52"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D293" s="52"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D294" s="52"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D295" s="52"/>
+      <c r="D295" s="13"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D296" s="52"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D297" s="52"/>
+      <c r="D297" s="13"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D298" s="52"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D299" s="52"/>
+      <c r="D299" s="13"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D300" s="52"/>
+      <c r="D300" s="13"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D301" s="52"/>
+      <c r="D301" s="13"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D302" s="52"/>
+      <c r="D302" s="13"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D303" s="52"/>
+      <c r="D303" s="13"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D304" s="52"/>
+      <c r="D304" s="13"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D305" s="52"/>
+      <c r="D305" s="13"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D306" s="52"/>
+      <c r="D306" s="13"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D307" s="52"/>
+      <c r="D307" s="13"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D308" s="52"/>
+      <c r="D308" s="13"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D309" s="52"/>
+      <c r="D309" s="13"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D310" s="52"/>
+      <c r="D310" s="13"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D311" s="52"/>
+      <c r="D311" s="13"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D312" s="52"/>
+      <c r="D312" s="13"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D313" s="52"/>
+      <c r="D313" s="13"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D314" s="52"/>
+      <c r="D314" s="13"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D315" s="52"/>
+      <c r="D315" s="13"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D316" s="52"/>
+      <c r="D316" s="13"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D317" s="52"/>
+      <c r="D317" s="13"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D318" s="52"/>
+      <c r="D318" s="13"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D319" s="52"/>
+      <c r="D319" s="13"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D320" s="52"/>
+      <c r="D320" s="13"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D321" s="52"/>
+      <c r="D321" s="13"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D322" s="52"/>
+      <c r="D322" s="13"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D323" s="52"/>
+      <c r="D323" s="13"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D324" s="52"/>
+      <c r="D324" s="13"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D325" s="52"/>
+      <c r="D325" s="13"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D326" s="52"/>
+      <c r="D326" s="13"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D327" s="52"/>
+      <c r="D327" s="13"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D328" s="52"/>
+      <c r="D328" s="13"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D329" s="52"/>
+      <c r="D329" s="13"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D330" s="52"/>
+      <c r="D330" s="13"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D331" s="52"/>
+      <c r="D331" s="13"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D332" s="52"/>
+      <c r="D332" s="13"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D333" s="52"/>
+      <c r="D333" s="13"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D334" s="52"/>
+      <c r="D334" s="13"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D335" s="52"/>
+      <c r="D335" s="13"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D336" s="52"/>
+      <c r="D336" s="13"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D337" s="52"/>
+      <c r="D337" s="13"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D338" s="52"/>
+      <c r="D338" s="13"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D339" s="52"/>
+      <c r="D339" s="13"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D340" s="52"/>
+      <c r="D340" s="13"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D341" s="52"/>
+      <c r="D341" s="13"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D342" s="52"/>
+      <c r="D342" s="13"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D343" s="52"/>
+      <c r="D343" s="13"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D344" s="52"/>
+      <c r="D344" s="13"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D345" s="52"/>
+      <c r="D345" s="13"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D346" s="52"/>
+      <c r="D346" s="13"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D347" s="52"/>
+      <c r="D347" s="13"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D348" s="52"/>
+      <c r="D348" s="13"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D349" s="52"/>
+      <c r="D349" s="13"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D350" s="52"/>
+      <c r="D350" s="13"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D351" s="52"/>
+      <c r="D351" s="13"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D352" s="52"/>
+      <c r="D352" s="13"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D353" s="52"/>
+      <c r="D353" s="13"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D354" s="52"/>
+      <c r="D354" s="13"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D355" s="52"/>
+      <c r="D355" s="13"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D356" s="52"/>
+      <c r="D356" s="13"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D357" s="52"/>
+      <c r="D357" s="13"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D358" s="52"/>
+      <c r="D358" s="13"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D359" s="52"/>
+      <c r="D359" s="13"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D360" s="52"/>
+      <c r="D360" s="13"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D361" s="52"/>
+      <c r="D361" s="13"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D362" s="52"/>
+      <c r="D362" s="13"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D363" s="52"/>
+      <c r="D363" s="13"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D364" s="52"/>
+      <c r="D364" s="13"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D365" s="52"/>
+      <c r="D365" s="13"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D366" s="52"/>
+      <c r="D366" s="13"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D367" s="52"/>
+      <c r="D367" s="13"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D368" s="52"/>
+      <c r="D368" s="13"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D369" s="52"/>
+      <c r="D369" s="13"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D370" s="52"/>
+      <c r="D370" s="13"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D371" s="52"/>
+      <c r="D371" s="13"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D372" s="52"/>
+      <c r="D372" s="13"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D373" s="52"/>
+      <c r="D373" s="13"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D374" s="52"/>
+      <c r="D374" s="13"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D375" s="52"/>
+      <c r="D375" s="13"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D376" s="52"/>
+      <c r="D376" s="13"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D377" s="52"/>
+      <c r="D377" s="13"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D378" s="52"/>
+      <c r="D378" s="13"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D379" s="52"/>
+      <c r="D379" s="13"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D380" s="52"/>
+      <c r="D380" s="13"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D381" s="52"/>
+      <c r="D381" s="13"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D382" s="52"/>
+      <c r="D382" s="13"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D383" s="52"/>
+      <c r="D383" s="13"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D384" s="52"/>
+      <c r="D384" s="13"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D385" s="52"/>
+      <c r="D385" s="13"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D386" s="52"/>
+      <c r="D386" s="13"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D387" s="52"/>
+      <c r="D387" s="13"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D388" s="52"/>
+      <c r="D388" s="13"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D389" s="52"/>
+      <c r="D389" s="13"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D390" s="52"/>
+      <c r="D390" s="13"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D391" s="52"/>
+      <c r="D391" s="13"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D392" s="52"/>
+      <c r="D392" s="13"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D393" s="52"/>
+      <c r="D393" s="13"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D394" s="52"/>
+      <c r="D394" s="13"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D395" s="52"/>
+      <c r="D395" s="13"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D396" s="52"/>
+      <c r="D396" s="13"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D397" s="52"/>
+      <c r="D397" s="13"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D398" s="52"/>
+      <c r="D398" s="13"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D399" s="52"/>
+      <c r="D399" s="13"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D400" s="52"/>
+      <c r="D400" s="13"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D401" s="52"/>
+      <c r="D401" s="13"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D402" s="52"/>
+      <c r="D402" s="13"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D403" s="52"/>
+      <c r="D403" s="13"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D404" s="52"/>
+      <c r="D404" s="13"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D405" s="52"/>
+      <c r="D405" s="13"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D406" s="52"/>
+      <c r="D406" s="13"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D407" s="52"/>
+      <c r="D407" s="13"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D408" s="52"/>
+      <c r="D408" s="13"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D409" s="52"/>
+      <c r="D409" s="13"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D410" s="52"/>
+      <c r="D410" s="13"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D411" s="52"/>
+      <c r="D411" s="13"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D412" s="52"/>
+      <c r="D412" s="13"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D413" s="52"/>
+      <c r="D413" s="13"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D414" s="52"/>
+      <c r="D414" s="13"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D415" s="52"/>
+      <c r="D415" s="13"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D416" s="52"/>
+      <c r="D416" s="13"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D417" s="52"/>
+      <c r="D417" s="13"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D418" s="52"/>
+      <c r="D418" s="13"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D419" s="52"/>
+      <c r="D419" s="13"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D420" s="52"/>
+      <c r="D420" s="13"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D421" s="52"/>
+      <c r="D421" s="13"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D422" s="52"/>
+      <c r="D422" s="13"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D423" s="52"/>
+      <c r="D423" s="13"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D424" s="52"/>
+      <c r="D424" s="13"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D425" s="52"/>
+      <c r="D425" s="13"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D426" s="52"/>
+      <c r="D426" s="13"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D427" s="52"/>
+      <c r="D427" s="13"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D428" s="52"/>
+      <c r="D428" s="13"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D429" s="52"/>
+      <c r="D429" s="13"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D430" s="52"/>
+      <c r="D430" s="13"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D431" s="52"/>
+      <c r="D431" s="13"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D432" s="52"/>
+      <c r="D432" s="13"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D433" s="52"/>
+      <c r="D433" s="13"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D434" s="52"/>
+      <c r="D434" s="13"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D435" s="52"/>
+      <c r="D435" s="13"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D436" s="52"/>
+      <c r="D436" s="13"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D437" s="52"/>
+      <c r="D437" s="13"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D438" s="52"/>
+      <c r="D438" s="13"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D439" s="52"/>
+      <c r="D439" s="13"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D440" s="52"/>
+      <c r="D440" s="13"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D441" s="52"/>
+      <c r="D441" s="13"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D442" s="52"/>
+      <c r="D442" s="13"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D443" s="52"/>
+      <c r="D443" s="13"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D444" s="52"/>
+      <c r="D444" s="13"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D445" s="52"/>
+      <c r="D445" s="13"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D446" s="52"/>
+      <c r="D446" s="13"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D447" s="52"/>
+      <c r="D447" s="13"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D448" s="52"/>
+      <c r="D448" s="13"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D449" s="52"/>
+      <c r="D449" s="13"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D450" s="52"/>
+      <c r="D450" s="13"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D451" s="52"/>
+      <c r="D451" s="13"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D452" s="52"/>
+      <c r="D452" s="13"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D453" s="52"/>
+      <c r="D453" s="13"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D454" s="52"/>
+      <c r="D454" s="13"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D455" s="52"/>
+      <c r="D455" s="13"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D456" s="52"/>
+      <c r="D456" s="13"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D457" s="52"/>
+      <c r="D457" s="13"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D458" s="52"/>
+      <c r="D458" s="13"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D459" s="52"/>
+      <c r="D459" s="13"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D460" s="52"/>
+      <c r="D460" s="13"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D461" s="52"/>
+      <c r="D461" s="13"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D462" s="52"/>
+      <c r="D462" s="13"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D463" s="52"/>
+      <c r="D463" s="13"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D464" s="52"/>
+      <c r="D464" s="13"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D465" s="52"/>
+      <c r="D465" s="13"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D466" s="52"/>
+      <c r="D466" s="13"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D467" s="52"/>
+      <c r="D467" s="13"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D468" s="52"/>
+      <c r="D468" s="13"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D469" s="52"/>
+      <c r="D469" s="13"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D470" s="52"/>
+      <c r="D470" s="13"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D471" s="52"/>
+      <c r="D471" s="13"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D472" s="52"/>
+      <c r="D472" s="13"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D473" s="52"/>
+      <c r="D473" s="13"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D474" s="52"/>
+      <c r="D474" s="13"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D475" s="52"/>
+      <c r="D475" s="13"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D476" s="52"/>
+      <c r="D476" s="13"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D477" s="52"/>
+      <c r="D477" s="13"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D478" s="52"/>
+      <c r="D478" s="13"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D479" s="52"/>
+      <c r="D479" s="13"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D480" s="52"/>
+      <c r="D480" s="13"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D481" s="52"/>
+      <c r="D481" s="13"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D482" s="52"/>
+      <c r="D482" s="13"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D483" s="52"/>
+      <c r="D483" s="13"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D484" s="52"/>
+      <c r="D484" s="13"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D485" s="52"/>
+      <c r="D485" s="13"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D486" s="52"/>
+      <c r="D486" s="13"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D487" s="52"/>
+      <c r="D487" s="13"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D488" s="52"/>
+      <c r="D488" s="13"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D489" s="52"/>
+      <c r="D489" s="13"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D490" s="52"/>
+      <c r="D490" s="13"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D491" s="52"/>
+      <c r="D491" s="13"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D492" s="52"/>
+      <c r="D492" s="13"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D493" s="52"/>
+      <c r="D493" s="13"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D494" s="52"/>
+      <c r="D494" s="13"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D495" s="52"/>
+      <c r="D495" s="13"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D496" s="52"/>
+      <c r="D496" s="13"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D497" s="52"/>
+      <c r="D497" s="13"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D498" s="52"/>
+      <c r="D498" s="13"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D499" s="52"/>
+      <c r="D499" s="13"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D500" s="52"/>
+      <c r="D500" s="13"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D501" s="52"/>
+      <c r="D501" s="13"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D502" s="52"/>
+      <c r="D502" s="13"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D503" s="52"/>
+      <c r="D503" s="13"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D504" s="52"/>
+      <c r="D504" s="13"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D505" s="52"/>
+      <c r="D505" s="13"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D506" s="52"/>
+      <c r="D506" s="13"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D507" s="52"/>
+      <c r="D507" s="13"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D508" s="52"/>
+      <c r="D508" s="13"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D509" s="52"/>
+      <c r="D509" s="13"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D510" s="52"/>
+      <c r="D510" s="13"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D511" s="52"/>
+      <c r="D511" s="13"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D512" s="52"/>
+      <c r="D512" s="13"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D513" s="52"/>
+      <c r="D513" s="13"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D514" s="52"/>
+      <c r="D514" s="13"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D515" s="52"/>
+      <c r="D515" s="13"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D516" s="52"/>
+      <c r="D516" s="13"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D517" s="52"/>
+      <c r="D517" s="13"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D518" s="52"/>
+      <c r="D518" s="13"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D519" s="52"/>
+      <c r="D519" s="13"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D520" s="52"/>
+      <c r="D520" s="13"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D521" s="52"/>
+      <c r="D521" s="13"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D522" s="52"/>
+      <c r="D522" s="13"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D523" s="52"/>
+      <c r="D523" s="13"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D524" s="52"/>
+      <c r="D524" s="13"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D525" s="52"/>
+      <c r="D525" s="13"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D526" s="52"/>
+      <c r="D526" s="13"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D527" s="52"/>
+      <c r="D527" s="13"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D528" s="52"/>
+      <c r="D528" s="13"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D529" s="52"/>
+      <c r="D529" s="13"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D530" s="52"/>
+      <c r="D530" s="13"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D531" s="52"/>
+      <c r="D531" s="13"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D532" s="52"/>
+      <c r="D532" s="13"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D533" s="52"/>
+      <c r="D533" s="13"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D534" s="52"/>
+      <c r="D534" s="13"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D535" s="52"/>
+      <c r="D535" s="13"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D536" s="52"/>
+      <c r="D536" s="13"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D537" s="52"/>
+      <c r="D537" s="13"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D538" s="52"/>
+      <c r="D538" s="13"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D539" s="52"/>
+      <c r="D539" s="13"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D540" s="52"/>
+      <c r="D540" s="13"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D541" s="52"/>
+      <c r="D541" s="13"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D542" s="52"/>
+      <c r="D542" s="13"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D543" s="52"/>
+      <c r="D543" s="13"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D544" s="52"/>
+      <c r="D544" s="13"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D545" s="52"/>
+      <c r="D545" s="13"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D546" s="52"/>
+      <c r="D546" s="13"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D547" s="52"/>
+      <c r="D547" s="13"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D548" s="52"/>
+      <c r="D548" s="13"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D549" s="52"/>
+      <c r="D549" s="13"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D550" s="52"/>
+      <c r="D550" s="13"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D551" s="52"/>
+      <c r="D551" s="13"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D552" s="52"/>
+      <c r="D552" s="13"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D553" s="52"/>
+      <c r="D553" s="13"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D554" s="52"/>
+      <c r="D554" s="13"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D555" s="52"/>
+      <c r="D555" s="13"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D556" s="52"/>
+      <c r="D556" s="13"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D557" s="52"/>
+      <c r="D557" s="13"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D558" s="52"/>
+      <c r="D558" s="13"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D559" s="52"/>
+      <c r="D559" s="13"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D560" s="52"/>
+      <c r="D560" s="13"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D561" s="52"/>
+      <c r="D561" s="13"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D562" s="52"/>
+      <c r="D562" s="13"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D563" s="52"/>
+      <c r="D563" s="13"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D564" s="52"/>
+      <c r="D564" s="13"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D565" s="52"/>
+      <c r="D565" s="13"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D566" s="52"/>
+      <c r="D566" s="13"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D567" s="52"/>
+      <c r="D567" s="13"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D568" s="52"/>
+      <c r="D568" s="13"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D569" s="52"/>
+      <c r="D569" s="13"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D570" s="52"/>
+      <c r="D570" s="13"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D571" s="52"/>
+      <c r="D571" s="13"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D572" s="52"/>
+      <c r="D572" s="13"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D573" s="52"/>
+      <c r="D573" s="13"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D574" s="52"/>
+      <c r="D574" s="13"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D575" s="52"/>
+      <c r="D575" s="13"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D576" s="52"/>
+      <c r="D576" s="13"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D577" s="52"/>
+      <c r="D577" s="13"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D578" s="52"/>
+      <c r="D578" s="13"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D579" s="52"/>
+      <c r="D579" s="13"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D580" s="52"/>
+      <c r="D580" s="13"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D581" s="52"/>
+      <c r="D581" s="13"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D582" s="52"/>
+      <c r="D582" s="13"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D583" s="52"/>
+      <c r="D583" s="13"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D584" s="52"/>
+      <c r="D584" s="13"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D585" s="52"/>
+      <c r="D585" s="13"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D586" s="52"/>
+      <c r="D586" s="13"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D587" s="52"/>
+      <c r="D587" s="13"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D588" s="52"/>
+      <c r="D588" s="13"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D589" s="52"/>
+      <c r="D589" s="13"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D590" s="52"/>
+      <c r="D590" s="13"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D591" s="52"/>
+      <c r="D591" s="13"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D592" s="52"/>
+      <c r="D592" s="13"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D593" s="52"/>
+      <c r="D593" s="13"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D594" s="52"/>
+      <c r="D594" s="13"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D595" s="52"/>
+      <c r="D595" s="13"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D596" s="52"/>
+      <c r="D596" s="13"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D597" s="52"/>
+      <c r="D597" s="13"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D598" s="52"/>
+      <c r="D598" s="13"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D599" s="52"/>
+      <c r="D599" s="13"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D600" s="52"/>
+      <c r="D600" s="13"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D601" s="52"/>
+      <c r="D601" s="13"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D602" s="52"/>
+      <c r="D602" s="13"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D603" s="52"/>
+      <c r="D603" s="13"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D604" s="52"/>
+      <c r="D604" s="13"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D605" s="52"/>
+      <c r="D605" s="13"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D606" s="52"/>
+      <c r="D606" s="13"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D607" s="52"/>
+      <c r="D607" s="13"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D608" s="52"/>
+      <c r="D608" s="13"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D609" s="52"/>
+      <c r="D609" s="13"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D610" s="52"/>
+      <c r="D610" s="13"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D611" s="52"/>
+      <c r="D611" s="13"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D612" s="52"/>
+      <c r="D612" s="13"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D613" s="52"/>
+      <c r="D613" s="13"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D614" s="52"/>
+      <c r="D614" s="13"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D615" s="52"/>
+      <c r="D615" s="13"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D616" s="52"/>
+      <c r="D616" s="13"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D617" s="52"/>
+      <c r="D617" s="13"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D618" s="52"/>
+      <c r="D618" s="13"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D619" s="52"/>
+      <c r="D619" s="13"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D620" s="52"/>
+      <c r="D620" s="13"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D621" s="52"/>
+      <c r="D621" s="13"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D622" s="52"/>
+      <c r="D622" s="13"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D623" s="52"/>
+      <c r="D623" s="13"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D624" s="52"/>
+      <c r="D624" s="13"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D625" s="52"/>
+      <c r="D625" s="13"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D626" s="52"/>
+      <c r="D626" s="13"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D627" s="52"/>
+      <c r="D627" s="13"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D628" s="52"/>
+      <c r="D628" s="13"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D629" s="52"/>
+      <c r="D629" s="13"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D630" s="52"/>
+      <c r="D630" s="13"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D631" s="52"/>
+      <c r="D631" s="13"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D632" s="52"/>
+      <c r="D632" s="13"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D633" s="52"/>
+      <c r="D633" s="13"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D634" s="52"/>
+      <c r="D634" s="13"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D635" s="52"/>
+      <c r="D635" s="13"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D636" s="52"/>
+      <c r="D636" s="13"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D637" s="52"/>
+      <c r="D637" s="13"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D638" s="52"/>
+      <c r="D638" s="13"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D639" s="52"/>
+      <c r="D639" s="13"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D640" s="52"/>
+      <c r="D640" s="13"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D641" s="52"/>
+      <c r="D641" s="13"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D642" s="52"/>
+      <c r="D642" s="13"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D643" s="52"/>
+      <c r="D643" s="13"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D644" s="52"/>
+      <c r="D644" s="13"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D645" s="52"/>
+      <c r="D645" s="13"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D646" s="52"/>
+      <c r="D646" s="13"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D647" s="52"/>
+      <c r="D647" s="13"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D648" s="52"/>
+      <c r="D648" s="13"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D649" s="52"/>
+      <c r="D649" s="13"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D650" s="52"/>
+      <c r="D650" s="13"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D651" s="52"/>
+      <c r="D651" s="13"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D652" s="52"/>
+      <c r="D652" s="13"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D653" s="52"/>
+      <c r="D653" s="13"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D654" s="52"/>
+      <c r="D654" s="13"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D655" s="52"/>
+      <c r="D655" s="13"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D656" s="52"/>
+      <c r="D656" s="13"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D657" s="52"/>
+      <c r="D657" s="13"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D658" s="52"/>
+      <c r="D658" s="13"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D659" s="52"/>
+      <c r="D659" s="13"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D660" s="52"/>
+      <c r="D660" s="13"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D661" s="52"/>
+      <c r="D661" s="13"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D662" s="52"/>
+      <c r="D662" s="13"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D663" s="52"/>
+      <c r="D663" s="13"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D664" s="52"/>
+      <c r="D664" s="13"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D665" s="52"/>
+      <c r="D665" s="13"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D666" s="52"/>
+      <c r="D666" s="13"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D667" s="52"/>
+      <c r="D667" s="13"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D668" s="52"/>
+      <c r="D668" s="13"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D669" s="52"/>
+      <c r="D669" s="13"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D670" s="52"/>
+      <c r="D670" s="13"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D671" s="52"/>
+      <c r="D671" s="13"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D672" s="52"/>
+      <c r="D672" s="13"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D673" s="52"/>
+      <c r="D673" s="13"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D674" s="52"/>
+      <c r="D674" s="13"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D675" s="52"/>
+      <c r="D675" s="13"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D676" s="52"/>
+      <c r="D676" s="13"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D677" s="52"/>
+      <c r="D677" s="13"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D678" s="52"/>
+      <c r="D678" s="13"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D679" s="52"/>
+      <c r="D679" s="13"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D680" s="52"/>
+      <c r="D680" s="13"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D681" s="52"/>
+      <c r="D681" s="13"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D682" s="52"/>
+      <c r="D682" s="13"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D683" s="52"/>
+      <c r="D683" s="13"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D684" s="52"/>
+      <c r="D684" s="13"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D685" s="52"/>
+      <c r="D685" s="13"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D686" s="52"/>
+      <c r="D686" s="13"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D687" s="52"/>
+      <c r="D687" s="13"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D688" s="52"/>
+      <c r="D688" s="13"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D689" s="52"/>
+      <c r="D689" s="13"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D690" s="52"/>
+      <c r="D690" s="13"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D691" s="52"/>
+      <c r="D691" s="13"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D692" s="52"/>
+      <c r="D692" s="13"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D693" s="52"/>
+      <c r="D693" s="13"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D694" s="52"/>
+      <c r="D694" s="13"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D695" s="52"/>
+      <c r="D695" s="13"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D696" s="52"/>
+      <c r="D696" s="13"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D697" s="52"/>
+      <c r="D697" s="13"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D698" s="52"/>
+      <c r="D698" s="13"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D699" s="52"/>
+      <c r="D699" s="13"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D700" s="52"/>
+      <c r="D700" s="13"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D701" s="52"/>
+      <c r="D701" s="13"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D702" s="52"/>
+      <c r="D702" s="13"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D703" s="52"/>
+      <c r="D703" s="13"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D704" s="52"/>
+      <c r="D704" s="13"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D705" s="52"/>
+      <c r="D705" s="13"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D706" s="52"/>
+      <c r="D706" s="13"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D707" s="52"/>
+      <c r="D707" s="13"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D708" s="52"/>
+      <c r="D708" s="13"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D709" s="52"/>
+      <c r="D709" s="13"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D710" s="52"/>
+      <c r="D710" s="13"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D711" s="52"/>
+      <c r="D711" s="13"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D712" s="52"/>
+      <c r="D712" s="13"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D713" s="52"/>
+      <c r="D713" s="13"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D714" s="52"/>
+      <c r="D714" s="13"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D715" s="52"/>
+      <c r="D715" s="13"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D716" s="52"/>
+      <c r="D716" s="13"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D717" s="52"/>
+      <c r="D717" s="13"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D718" s="52"/>
+      <c r="D718" s="13"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D719" s="52"/>
+      <c r="D719" s="13"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D720" s="52"/>
+      <c r="D720" s="13"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D721" s="52"/>
+      <c r="D721" s="13"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D722" s="52"/>
+      <c r="D722" s="13"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D723" s="52"/>
+      <c r="D723" s="13"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D724" s="52"/>
+      <c r="D724" s="13"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D725" s="52"/>
+      <c r="D725" s="13"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D726" s="52"/>
+      <c r="D726" s="13"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D727" s="52"/>
+      <c r="D727" s="13"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D728" s="52"/>
+      <c r="D728" s="13"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D729" s="52"/>
+      <c r="D729" s="13"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D730" s="52"/>
+      <c r="D730" s="13"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D731" s="52"/>
+      <c r="D731" s="13"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D732" s="52"/>
+      <c r="D732" s="13"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D733" s="52"/>
+      <c r="D733" s="13"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D734" s="52"/>
+      <c r="D734" s="13"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D735" s="52"/>
+      <c r="D735" s="13"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D736" s="52"/>
+      <c r="D736" s="13"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D737" s="52"/>
+      <c r="D737" s="13"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D738" s="52"/>
+      <c r="D738" s="13"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D739" s="52"/>
+      <c r="D739" s="13"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D740" s="52"/>
+      <c r="D740" s="13"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D741" s="52"/>
+      <c r="D741" s="13"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D742" s="52"/>
+      <c r="D742" s="13"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D743" s="52"/>
+      <c r="D743" s="13"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D744" s="52"/>
+      <c r="D744" s="13"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D745" s="52"/>
+      <c r="D745" s="13"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D746" s="52"/>
+      <c r="D746" s="13"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D747" s="52"/>
+      <c r="D747" s="13"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D748" s="52"/>
+      <c r="D748" s="13"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D749" s="52"/>
+      <c r="D749" s="13"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D750" s="52"/>
+      <c r="D750" s="13"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D751" s="52"/>
+      <c r="D751" s="13"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D752" s="52"/>
+      <c r="D752" s="13"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D753" s="52"/>
+      <c r="D753" s="13"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D754" s="52"/>
+      <c r="D754" s="13"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D755" s="52"/>
+      <c r="D755" s="13"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D756" s="52"/>
+      <c r="D756" s="13"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D757" s="52"/>
+      <c r="D757" s="13"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D758" s="52"/>
+      <c r="D758" s="13"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D759" s="52"/>
+      <c r="D759" s="13"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D760" s="52"/>
+      <c r="D760" s="13"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D761" s="52"/>
+      <c r="D761" s="13"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D762" s="52"/>
+      <c r="D762" s="13"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D763" s="52"/>
+      <c r="D763" s="13"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D764" s="52"/>
+      <c r="D764" s="13"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D765" s="52"/>
+      <c r="D765" s="13"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D766" s="52"/>
+      <c r="D766" s="13"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D767" s="52"/>
+      <c r="D767" s="13"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D768" s="52"/>
+      <c r="D768" s="13"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D769" s="52"/>
+      <c r="D769" s="13"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D770" s="52"/>
+      <c r="D770" s="13"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D771" s="52"/>
+      <c r="D771" s="13"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D772" s="52"/>
+      <c r="D772" s="13"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D773" s="52"/>
+      <c r="D773" s="13"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D774" s="52"/>
+      <c r="D774" s="13"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D775" s="52"/>
+      <c r="D775" s="13"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D776" s="52"/>
+      <c r="D776" s="13"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D777" s="52"/>
+      <c r="D777" s="13"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D778" s="52"/>
+      <c r="D778" s="13"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D779" s="52"/>
+      <c r="D779" s="13"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D780" s="52"/>
+      <c r="D780" s="13"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D781" s="52"/>
+      <c r="D781" s="13"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D782" s="52"/>
+      <c r="D782" s="13"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D783" s="52"/>
+      <c r="D783" s="13"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D784" s="52"/>
+      <c r="D784" s="13"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D785" s="52"/>
+      <c r="D785" s="13"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D786" s="52"/>
+      <c r="D786" s="13"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D787" s="52"/>
+      <c r="D787" s="13"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D788" s="52"/>
+      <c r="D788" s="13"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D789" s="52"/>
+      <c r="D789" s="13"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D790" s="52"/>
+      <c r="D790" s="13"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D791" s="52"/>
+      <c r="D791" s="13"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D792" s="52"/>
+      <c r="D792" s="13"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D793" s="52"/>
+      <c r="D793" s="13"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D794" s="52"/>
+      <c r="D794" s="13"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D795" s="52"/>
+      <c r="D795" s="13"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D796" s="52"/>
+      <c r="D796" s="13"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D797" s="52"/>
+      <c r="D797" s="13"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D798" s="52"/>
+      <c r="D798" s="13"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D799" s="52"/>
+      <c r="D799" s="13"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D800" s="52"/>
+      <c r="D800" s="13"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D801" s="52"/>
+      <c r="D801" s="13"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D802" s="52"/>
+      <c r="D802" s="13"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D803" s="52"/>
+      <c r="D803" s="13"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D804" s="52"/>
+      <c r="D804" s="13"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D805" s="52"/>
+      <c r="D805" s="13"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D806" s="52"/>
+      <c r="D806" s="13"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D807" s="52"/>
+      <c r="D807" s="13"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D808" s="52"/>
+      <c r="D808" s="13"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D809" s="52"/>
+      <c r="D809" s="13"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D810" s="52"/>
+      <c r="D810" s="13"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D811" s="52"/>
+      <c r="D811" s="13"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D812" s="52"/>
+      <c r="D812" s="13"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D813" s="52"/>
+      <c r="D813" s="13"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D814" s="52"/>
+      <c r="D814" s="13"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D815" s="52"/>
+      <c r="D815" s="13"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D816" s="52"/>
+      <c r="D816" s="13"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D817" s="52"/>
+      <c r="D817" s="13"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D818" s="52"/>
+      <c r="D818" s="13"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D819" s="52"/>
+      <c r="D819" s="13"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D820" s="52"/>
+      <c r="D820" s="13"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D821" s="52"/>
+      <c r="D821" s="13"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D822" s="52"/>
+      <c r="D822" s="13"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D823" s="52"/>
+      <c r="D823" s="13"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D824" s="52"/>
+      <c r="D824" s="13"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D825" s="52"/>
+      <c r="D825" s="13"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D826" s="52"/>
+      <c r="D826" s="13"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D827" s="52"/>
+      <c r="D827" s="13"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D828" s="52"/>
+      <c r="D828" s="13"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D829" s="52"/>
+      <c r="D829" s="13"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D830" s="52"/>
+      <c r="D830" s="13"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D831" s="52"/>
+      <c r="D831" s="13"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D832" s="52"/>
+      <c r="D832" s="13"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D833" s="52"/>
+      <c r="D833" s="13"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D834" s="52"/>
+      <c r="D834" s="13"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D835" s="52"/>
+      <c r="D835" s="13"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D836" s="52"/>
+      <c r="D836" s="13"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D837" s="52"/>
+      <c r="D837" s="13"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D838" s="52"/>
+      <c r="D838" s="13"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D839" s="52"/>
+      <c r="D839" s="13"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D840" s="52"/>
+      <c r="D840" s="13"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D841" s="52"/>
+      <c r="D841" s="13"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D842" s="52"/>
+      <c r="D842" s="13"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D843" s="52"/>
+      <c r="D843" s="13"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D844" s="52"/>
+      <c r="D844" s="13"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D845" s="52"/>
+      <c r="D845" s="13"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D846" s="52"/>
+      <c r="D846" s="13"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D847" s="52"/>
+      <c r="D847" s="13"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D848" s="52"/>
+      <c r="D848" s="13"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D849" s="52"/>
+      <c r="D849" s="13"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D850" s="52"/>
+      <c r="D850" s="13"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D851" s="52"/>
+      <c r="D851" s="13"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D852" s="52"/>
+      <c r="D852" s="13"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D853" s="52"/>
+      <c r="D853" s="13"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D854" s="52"/>
+      <c r="D854" s="13"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D855" s="52"/>
+      <c r="D855" s="13"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D856" s="52"/>
+      <c r="D856" s="13"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D857" s="52"/>
+      <c r="D857" s="13"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D858" s="52"/>
+      <c r="D858" s="13"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D859" s="52"/>
+      <c r="D859" s="13"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D860" s="52"/>
+      <c r="D860" s="13"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D861" s="52"/>
+      <c r="D861" s="13"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D862" s="52"/>
+      <c r="D862" s="13"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D863" s="52"/>
+      <c r="D863" s="13"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D864" s="52"/>
+      <c r="D864" s="13"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D865" s="52"/>
+      <c r="D865" s="13"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D866" s="52"/>
+      <c r="D866" s="13"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D867" s="52"/>
+      <c r="D867" s="13"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D868" s="52"/>
+      <c r="D868" s="13"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D869" s="52"/>
+      <c r="D869" s="13"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D870" s="52"/>
+      <c r="D870" s="13"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D871" s="52"/>
+      <c r="D871" s="13"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D872" s="52"/>
+      <c r="D872" s="13"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D873" s="52"/>
+      <c r="D873" s="13"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D874" s="52"/>
+      <c r="D874" s="13"/>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D875" s="52"/>
+      <c r="D875" s="13"/>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D876" s="52"/>
+      <c r="D876" s="13"/>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D877" s="52"/>
+      <c r="D877" s="13"/>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D878" s="52"/>
+      <c r="D878" s="13"/>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D879" s="52"/>
+      <c r="D879" s="13"/>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D880" s="52"/>
+      <c r="D880" s="13"/>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D881" s="52"/>
+      <c r="D881" s="13"/>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D882" s="52"/>
+      <c r="D882" s="13"/>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D883" s="52"/>
+      <c r="D883" s="13"/>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D884" s="52"/>
+      <c r="D884" s="13"/>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D885" s="52"/>
+      <c r="D885" s="13"/>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D886" s="52"/>
+      <c r="D886" s="13"/>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D887" s="52"/>
+      <c r="D887" s="13"/>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D888" s="52"/>
+      <c r="D888" s="13"/>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D889" s="52"/>
+      <c r="D889" s="13"/>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D890" s="52"/>
+      <c r="D890" s="13"/>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D891" s="52"/>
+      <c r="D891" s="13"/>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D892" s="52"/>
+      <c r="D892" s="13"/>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D893" s="52"/>
+      <c r="D893" s="13"/>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D894" s="52"/>
+      <c r="D894" s="13"/>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D895" s="52"/>
+      <c r="D895" s="13"/>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D896" s="52"/>
+      <c r="D896" s="13"/>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D897" s="52"/>
+      <c r="D897" s="13"/>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D898" s="52"/>
+      <c r="D898" s="13"/>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D899" s="52"/>
+      <c r="D899" s="13"/>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D900" s="52"/>
+      <c r="D900" s="13"/>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D901" s="52"/>
+      <c r="D901" s="13"/>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D902" s="52"/>
+      <c r="D902" s="13"/>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D903" s="52"/>
+      <c r="D903" s="13"/>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D904" s="52"/>
+      <c r="D904" s="13"/>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D905" s="52"/>
+      <c r="D905" s="13"/>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D906" s="52"/>
+      <c r="D906" s="13"/>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D907" s="52"/>
+      <c r="D907" s="13"/>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D908" s="52"/>
+      <c r="D908" s="13"/>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D909" s="52"/>
+      <c r="D909" s="13"/>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D910" s="52"/>
+      <c r="D910" s="13"/>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D911" s="52"/>
+      <c r="D911" s="13"/>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D912" s="52"/>
+      <c r="D912" s="13"/>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D913" s="52"/>
+      <c r="D913" s="13"/>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D914" s="52"/>
+      <c r="D914" s="13"/>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D915" s="52"/>
+      <c r="D915" s="13"/>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D916" s="52"/>
+      <c r="D916" s="13"/>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D917" s="52"/>
+      <c r="D917" s="13"/>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D918" s="52"/>
+      <c r="D918" s="13"/>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D919" s="52"/>
+      <c r="D919" s="13"/>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D920" s="52"/>
+      <c r="D920" s="13"/>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D921" s="52"/>
+      <c r="D921" s="13"/>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D922" s="52"/>
+      <c r="D922" s="13"/>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D923" s="52"/>
+      <c r="D923" s="13"/>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D924" s="52"/>
+      <c r="D924" s="13"/>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D925" s="52"/>
+      <c r="D925" s="13"/>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D926" s="52"/>
+      <c r="D926" s="13"/>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D927" s="52"/>
+      <c r="D927" s="13"/>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D928" s="52"/>
+      <c r="D928" s="13"/>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D929" s="52"/>
+      <c r="D929" s="13"/>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D930" s="52"/>
+      <c r="D930" s="13"/>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D931" s="52"/>
+      <c r="D931" s="13"/>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D932" s="52"/>
+      <c r="D932" s="13"/>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D933" s="52"/>
+      <c r="D933" s="13"/>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D934" s="52"/>
+      <c r="D934" s="13"/>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D935" s="52"/>
+      <c r="D935" s="13"/>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D936" s="52"/>
+      <c r="D936" s="13"/>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D937" s="52"/>
+      <c r="D937" s="13"/>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D938" s="52"/>
+      <c r="D938" s="13"/>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D939" s="52"/>
+      <c r="D939" s="13"/>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D940" s="52"/>
+      <c r="D940" s="13"/>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D941" s="52"/>
+      <c r="D941" s="13"/>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D942" s="52"/>
+      <c r="D942" s="13"/>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D943" s="52"/>
+      <c r="D943" s="13"/>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D944" s="52"/>
+      <c r="D944" s="13"/>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D945" s="52"/>
+      <c r="D945" s="13"/>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D946" s="52"/>
+      <c r="D946" s="13"/>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D947" s="52"/>
+      <c r="D947" s="13"/>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D948" s="52"/>
+      <c r="D948" s="13"/>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D949" s="52"/>
+      <c r="D949" s="13"/>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D950" s="52"/>
+      <c r="D950" s="13"/>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D951" s="52"/>
+      <c r="D951" s="13"/>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D952" s="52"/>
+      <c r="D952" s="13"/>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D953" s="52"/>
+      <c r="D953" s="13"/>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D954" s="52"/>
+      <c r="D954" s="13"/>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D955" s="52"/>
+      <c r="D955" s="13"/>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D956" s="52"/>
+      <c r="D956" s="13"/>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D957" s="52"/>
+      <c r="D957" s="13"/>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D958" s="52"/>
+      <c r="D958" s="13"/>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D959" s="52"/>
+      <c r="D959" s="13"/>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D960" s="52"/>
+      <c r="D960" s="13"/>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D961" s="52"/>
+      <c r="D961" s="13"/>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D962" s="52"/>
+      <c r="D962" s="13"/>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D963" s="52"/>
+      <c r="D963" s="13"/>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D964" s="52"/>
+      <c r="D964" s="13"/>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D965" s="52"/>
+      <c r="D965" s="13"/>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D966" s="52"/>
+      <c r="D966" s="13"/>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D967" s="52"/>
+      <c r="D967" s="13"/>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D968" s="52"/>
+      <c r="D968" s="13"/>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D969" s="52"/>
+      <c r="D969" s="13"/>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D970" s="52"/>
+      <c r="D970" s="13"/>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D971" s="52"/>
+      <c r="D971" s="13"/>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D972" s="52"/>
+      <c r="D972" s="13"/>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D973" s="52"/>
+      <c r="D973" s="13"/>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D974" s="52"/>
+      <c r="D974" s="13"/>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D975" s="52"/>
+      <c r="D975" s="13"/>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D976" s="52"/>
+      <c r="D976" s="13"/>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D977" s="52"/>
+      <c r="D977" s="13"/>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D978" s="52"/>
+      <c r="D978" s="13"/>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D979" s="52"/>
+      <c r="D979" s="13"/>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D980" s="52"/>
+      <c r="D980" s="13"/>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D981" s="52"/>
+      <c r="D981" s="13"/>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D982" s="52"/>
+      <c r="D982" s="13"/>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D983" s="52"/>
+      <c r="D983" s="13"/>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D984" s="52"/>
+      <c r="D984" s="13"/>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D985" s="52"/>
+      <c r="D985" s="13"/>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D986" s="52"/>
+      <c r="D986" s="13"/>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D987" s="52"/>
+      <c r="D987" s="13"/>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D988" s="52"/>
+      <c r="D988" s="13"/>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D989" s="52"/>
+      <c r="D989" s="13"/>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D990" s="52"/>
+      <c r="D990" s="13"/>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D991" s="52"/>
+      <c r="D991" s="13"/>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D992" s="52"/>
+      <c r="D992" s="13"/>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D993" s="52"/>
+      <c r="D993" s="13"/>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D994" s="52"/>
+      <c r="D994" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -42029,7 +42031,7 @@
   <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="2" sqref="D59 D61 D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42638,7 +42640,7 @@
       <c r="A22" s="41" t="s">
         <v>1400</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>1645</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -43187,10 +43189,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="51" t="s">
         <v>1473</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="51" t="s">
         <v>1642</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -43215,10 +43217,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="51" t="s">
         <v>1477</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="51" t="s">
         <v>1642</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -43889,7 +43891,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="53" t="s">
         <v>1553</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -44001,10 +44003,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="51" t="s">
         <v>1658</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="51" t="s">
         <v>1642</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -44029,10 +44031,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="51" t="s">
         <v>1659</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="51" t="s">
         <v>1642</v>
       </c>
       <c r="C72" s="34" t="s">
